--- a/data/hotels_by_city/Houston/Houston_shard_352.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_352.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1575212-Reviews-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Hou-Energy-Corridor-Eldridge.h2947670.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1633 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r564028516-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1575212</t>
+  </si>
+  <si>
+    <t>564028516</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>A fine Holiday Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I made the reservation I was expecting the standard hotel but was pleasantly surprised upon check in, it’s new modern Hotel with very large rooms well appointed comfortable in a quiet neighborhood far enough away from I 10 freeway where there is no noise or high traffic and in a residential area which has choice of some restaurants. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r556890918-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556890918</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>Stayed here for almost 2 weeks on business. My room was clean, had a fridge and microwave etc. the Keurig in the room had an odd smell to it, would not drink coffee from it. The area where the ice machine was had a very bad smell , a bit off putting. Breakfast needs work, we had many mornings where it was hard to get coffe in a timely fashion or they had run out. Offered to get more but when you are on business you want things quickly. I was there 3 days before I found out you had to ask for toast and then later it would come quickly or sometimes be a wait. On the positive side the eggs etc were always good, better than you typically gat although one day the eggs were empty. This is convenient for the office I worked in but I would stay elsewhere for pleasure. The staff are fruendly. Watch out for the side entrance the ramp is steep and will rip the guts off your car if you turn in too fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for almost 2 weeks on business. My room was clean, had a fridge and microwave etc. the Keurig in the room had an odd smell to it, would not drink coffee from it. The area where the ice machine was had a very bad smell , a bit off putting. Breakfast needs work, we had many mornings where it was hard to get coffe in a timely fashion or they had run out. Offered to get more but when you are on business you want things quickly. I was there 3 days before I found out you had to ask for toast and then later it would come quickly or sometimes be a wait. On the positive side the eggs etc were always good, better than you typically gat although one day the eggs were empty. This is convenient for the office I worked in but I would stay elsewhere for pleasure. The staff are fruendly. Watch out for the side entrance the ramp is steep and will rip the guts off your car if you turn in too fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r553709124-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553709124</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Quality stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient hotel with attention for quality. Everything working properly and well maintained. The breakfast buffet has limited choices (they also have a menu) but what was offered was freshly cooked. Room was clean with good quality bed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r493151702-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493151702</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Always a great stay</t>
+  </si>
+  <si>
+    <t>The hotel staff is always outstanding and a great help.  Rooms are always clean and well taken care of.  Food at the in house restaurant is good, and there are plenty of fine dining places if you venture out.  The only change I would make is that the fitness center is small and lacking newer equipment.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r485901524-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485901524</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>One amazing hotel!!!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying here for a week while working in Houston. Let me say, this hotel is the real deal!! I've stayed in some pretty awesome hotels - Raffles in Seychelles, the Address in Dubai - and while this gem lacks the breathtaking views or champagne breakfasts, it is every bit as comfortable and the customer service is impeccable! My room was large and cozy. The bed was so fluffy and soft, the pillows on the bed were overwhelming, it was like sleeping on clouds. The room had a coffee maker, fridge and microwave, and the wifi was lightning fast.. and FREE! Chelsie at the front desk was delightful, making sure I had everything I could ever need - access to the hotel bike, laundry facility and luggage storage. And Brooke in the bar -- she makes THE BEST margarita, ever! You must try it!!! There are several hotels in this area, but I'm certain this by far is the best bet! Truly a great week here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying here for a week while working in Houston. Let me say, this hotel is the real deal!! I've stayed in some pretty awesome hotels - Raffles in Seychelles, the Address in Dubai - and while this gem lacks the breathtaking views or champagne breakfasts, it is every bit as comfortable and the customer service is impeccable! My room was large and cozy. The bed was so fluffy and soft, the pillows on the bed were overwhelming, it was like sleeping on clouds. The room had a coffee maker, fridge and microwave, and the wifi was lightning fast.. and FREE! Chelsie at the front desk was delightful, making sure I had everything I could ever need - access to the hotel bike, laundry facility and luggage storage. And Brooke in the bar -- she makes THE BEST margarita, ever! You must try it!!! There are several hotels in this area, but I'm certain this by far is the best bet! Truly a great week here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r485060993-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485060993</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Very Clean, Comfy rooms and Convenient Location</t>
+  </si>
+  <si>
+    <t>The staff were exceptionally kind and welcoming, greeting you each time you came in the door.  The rooms were very clean and the bedding was perfection.   Hotel has a very convenient location right off the interstate.  Do stay here.  Nicest staff EVER!  I believe they must "space you out" in the rooms because I did not hear one sound for two nights!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r477282359-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477282359</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>A great way to lose a long term customer</t>
+  </si>
+  <si>
+    <t>On a long term project with the energy company next door.  Was staying at this property during the week on a project that would extend for the next 18 months.  Never will go here again after the way we were treated.  No morning hot water in a business hotel is unexceptable.  Two nights of the same...very bad.  Spoke to the MOD and asked for compensation for the two nights and was turned down.  Best they could do was give me more points?  Would have been a steady customer,  but management clearly did not care whether I returned or not.  And I won't.  Business travel is hard enough, and I can live with out the free breakfast, but sure needed hot water.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>On a long term project with the energy company next door.  Was staying at this property during the week on a project that would extend for the next 18 months.  Never will go here again after the way we were treated.  No morning hot water in a business hotel is unexceptable.  Two nights of the same...very bad.  Spoke to the MOD and asked for compensation for the two nights and was turned down.  Best they could do was give me more points?  Would have been a steady customer,  but management clearly did not care whether I returned or not.  And I won't.  Business travel is hard enough, and I can live with out the free breakfast, but sure needed hot water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r472612478-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472612478</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Good location for work, restaurants nearby, good bar, friendly staff. I would stay here again. I stay here or courtyard when in town depending on rates but prefer the Holiday Inn due to location. Nice job!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Good location for work, restaurants nearby, good bar, friendly staff. I would stay here again. I stay here or courtyard when in town depending on rates but prefer the Holiday Inn due to location. Nice job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r466241395-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466241395</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>While visiting the Houston area this week I stayed at this hotel due to its location - far enough away from the noisy Katy Freeway (about 1 1/2 miles) in a nice quiet neighborhood.  I stayed in a king executive room.  My room was clean and the furnishings were in very good condition.  My bed was comfortable.  The Direct TV service provided many selections to view.  The flat panel TV was a good size.  The air conditioner was quiet.  The bathroom was a nice size that included a walk-in shower.  The vanity sink was unique - it was a bright green base with a tempered glass overlay.  The front desk staff were friendly.  The restaurant was very good as well - see separate review.  This was a good place to stay and I would definitely stay here again.  My only issue was that the room charge for the dinner that I enjoyed during my last evening was not included in the bill that was delivered under my door the following morning.  A quick call to the front desk resolved this.  Apparently the documents were run/printed before the evening's restaurant charges had been posted.  The manager's reception on Tuesday evening for IHG members was an unexpected surprise that included assorted wines, bottled beers, and a raffle of 10,000 IHG points.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>While visiting the Houston area this week I stayed at this hotel due to its location - far enough away from the noisy Katy Freeway (about 1 1/2 miles) in a nice quiet neighborhood.  I stayed in a king executive room.  My room was clean and the furnishings were in very good condition.  My bed was comfortable.  The Direct TV service provided many selections to view.  The flat panel TV was a good size.  The air conditioner was quiet.  The bathroom was a nice size that included a walk-in shower.  The vanity sink was unique - it was a bright green base with a tempered glass overlay.  The front desk staff were friendly.  The restaurant was very good as well - see separate review.  This was a good place to stay and I would definitely stay here again.  My only issue was that the room charge for the dinner that I enjoyed during my last evening was not included in the bill that was delivered under my door the following morning.  A quick call to the front desk resolved this.  Apparently the documents were run/printed before the evening's restaurant charges had been posted.  The manager's reception on Tuesday evening for IHG members was an unexpected surprise that included assorted wines, bottled beers, and a raffle of 10,000 IHG points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r440214930-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440214930</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>nice clean room, great breakfast</t>
+  </si>
+  <si>
+    <t>The room was nice and clean with free wifi. We opted for the rate with the breakfast and it was well worth it. If you get this rate, they will give you a voucher to use for a breakfast in their restaurant. It was the day after Thanksgiving and the restaurant was not very busy. Our server was the restaurant manager, Diane, because she had given the regular server the day off. She was so nice and it was a pleasure having her as our server. The breakfasts for us and our son were very tasty and well worth the slightly higher room rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>The room was nice and clean with free wifi. We opted for the rate with the breakfast and it was well worth it. If you get this rate, they will give you a voucher to use for a breakfast in their restaurant. It was the day after Thanksgiving and the restaurant was not very busy. Our server was the restaurant manager, Diane, because she had given the regular server the day off. She was so nice and it was a pleasure having her as our server. The breakfasts for us and our son were very tasty and well worth the slightly higher room rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r438838652-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438838652</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Close to I10, clean and modern with restaurant close to shops and restaurants</t>
+  </si>
+  <si>
+    <t>I stay here when on business in Houston. Overall the hotel is ideal for family or business travelers. Check in is quick and easy, on the ground floor near the lobby you will find a restaurant that serves breakfast and dinner, never been for lunch. The rooms are all in good decor, with LCD tvs, clean bathrooms, armchair, table and chair with comfortable beds. However, I had a difficult time with wifi to access internet. I was staying on 3rd floor room 333. Unfortunately this is at end of building and the signal was just not working. I contacted the lobby they did not have a solution and just told me to switch my computer on and off. Still no luck had to go to lobby to use computer -would not stay in this room again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>I stay here when on business in Houston. Overall the hotel is ideal for family or business travelers. Check in is quick and easy, on the ground floor near the lobby you will find a restaurant that serves breakfast and dinner, never been for lunch. The rooms are all in good decor, with LCD tvs, clean bathrooms, armchair, table and chair with comfortable beds. However, I had a difficult time with wifi to access internet. I was staying on 3rd floor room 333. Unfortunately this is at end of building and the signal was just not working. I contacted the lobby they did not have a solution and just told me to switch my computer on and off. Still no luck had to go to lobby to use computer -would not stay in this room again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r438075398-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438075398</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>OMG THIS HOTEL IS AMAZING!!!!!</t>
+  </si>
+  <si>
+    <t>The Holiday inn on Elridge pkway is the best hotel I have ever been in. The staff if very friendly, I was treated like family. And questions, concerns, details I needed they answered for me with no problems.  The rooms was clean, cozy and just overall wonderful.  I experienced the staff of Carmen, Darrion, Diane, and Jorge . These people are phenomenal. Mrs. Diane runs the grill-- she was the greatest server i have experienced ever! The food in the grill was simply amazing, it was like eating at a 5 star restaurant. Darrion and Carmen worked the counter, they always made sure i was ok, They would get me started with my day. Jorge was the shuttle driver, very friendly, polite man. The staff was just a wonderful smiling staff. I would recommend this hotel to anyone and definitely will be returning! thank you so much for this world class experience and bring me joy!!!! This hotel is AMAZING!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>The Holiday inn on Elridge pkway is the best hotel I have ever been in. The staff if very friendly, I was treated like family. And questions, concerns, details I needed they answered for me with no problems.  The rooms was clean, cozy and just overall wonderful.  I experienced the staff of Carmen, Darrion, Diane, and Jorge . These people are phenomenal. Mrs. Diane runs the grill-- she was the greatest server i have experienced ever! The food in the grill was simply amazing, it was like eating at a 5 star restaurant. Darrion and Carmen worked the counter, they always made sure i was ok, They would get me started with my day. Jorge was the shuttle driver, very friendly, polite man. The staff was just a wonderful smiling staff. I would recommend this hotel to anyone and definitely will be returning! thank you so much for this world class experience and bring me joy!!!! This hotel is AMAZING!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r429887097-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429887097</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Great Service at the front desk!</t>
+  </si>
+  <si>
+    <t>It was a last minute trip that my friends planned and they drove from Alabama to Houston. They would arrive at 8am in the morning and need a place to sleep. I called around to see if they would let us check that early.. will ofcrouse other hotels was either charge me extra for early check in or won't let me do it at all! but when I called Holiday Inn here Victor at the front desk was so kind! he assign me a room with to charges if I came in at 8am and gave me the most pleasant service.  The room was great and the employees was friendly. I would stay here again and they gave me a very good great impression of holliday inn since its my first time staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>It was a last minute trip that my friends planned and they drove from Alabama to Houston. They would arrive at 8am in the morning and need a place to sleep. I called around to see if they would let us check that early.. will ofcrouse other hotels was either charge me extra for early check in or won't let me do it at all! but when I called Holiday Inn here Victor at the front desk was so kind! he assign me a room with to charges if I came in at 8am and gave me the most pleasant service.  The room was great and the employees was friendly. I would stay here again and they gave me a very good great impression of holliday inn since its my first time staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r400224144-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400224144</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and the rooms was spacious. No bath in the bathroom though which was a bummer. My qualms was that no one even tried to help with my luggage when I had two kids and looked heavily pregnant. Had to struggle with 3 boxes, a stroller and 2 kids all by myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a night and the rooms was spacious. No bath in the bathroom though which was a bummer. My qualms was that no one even tried to help with my luggage when I had two kids and looked heavily pregnant. Had to struggle with 3 boxes, a stroller and 2 kids all by myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r389306899-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389306899</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Just for business trips</t>
+  </si>
+  <si>
+    <t>This Hotel is for business trip only. AC in room is noisy, breakfast is really simple but pricy.Rooms are standard and clean, but better you speak spanish with housekeeping ladies. Quiet area around and it's close to all oil companies offices.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>This Hotel is for business trip only. AC in room is noisy, breakfast is really simple but pricy.Rooms are standard and clean, but better you speak spanish with housekeeping ladies. Quiet area around and it's close to all oil companies offices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r380535663-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380535663</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Great location for my meeting</t>
+  </si>
+  <si>
+    <t>Great service by friendly staff. Room had lots of room, and nice accomadations. Only drawback was no bath, but had a nice shower. Air ws already on, room felt nice for aa lsre arrival. Before deparing, had a nice btreakfast. Would definitely stay here again. Nice bar onsite to visit with friennds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Great service by friendly staff. Room had lots of room, and nice accomadations. Only drawback was no bath, but had a nice shower. Air ws already on, room felt nice for aa lsre arrival. Before deparing, had a nice btreakfast. Would definitely stay here again. Nice bar onsite to visit with friennds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r373204724-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373204724</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Great value for the price</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for the last 2 weeks of April/16 and overall I had a good experience. I got a room right next to the elevator on the 3rd floor and I could not hear a single noise coming from the elevator. I could, though, hear some noise from my neighbor's TV... Also close to the elevator there's an ice machine and in the room a microwave, a small refrigerator and a coffee machine with some supplies (coffee, tea and sugar). The wifi was not good and would keep disconnecting from time to time. For business calls I could use the cable internet and it was good enough. Breakfast was too expensive for what it was, so I ended up having breakfast somewhere else. There's plenty of parking space and some good restaurants around. I chose this hotel because it is from the IHG group and very close to the place I was working during those 2 weeks. Sometimes there was nobody at the front desk, so you need to wait some minutes in case you need something. I did not use the pool and the gym, but the hotel has those as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for the last 2 weeks of April/16 and overall I had a good experience. I got a room right next to the elevator on the 3rd floor and I could not hear a single noise coming from the elevator. I could, though, hear some noise from my neighbor's TV... Also close to the elevator there's an ice machine and in the room a microwave, a small refrigerator and a coffee machine with some supplies (coffee, tea and sugar). The wifi was not good and would keep disconnecting from time to time. For business calls I could use the cable internet and it was good enough. Breakfast was too expensive for what it was, so I ended up having breakfast somewhere else. There's plenty of parking space and some good restaurants around. I chose this hotel because it is from the IHG group and very close to the place I was working during those 2 weeks. Sometimes there was nobody at the front desk, so you need to wait some minutes in case you need something. I did not use the pool and the gym, but the hotel has those as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r371574846-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371574846</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Not bad but not great</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfortable, A/C works great. Staff have always been friendly. Restaurant is ok. My biggest thing is the internet is really poor. I have been in a number of different rooms and have never had even a decent connection. First issue is the wifi drops in and out. The next issue is that I was unable to go to a number of sites (even though I was able to go to those sites on my phone which was not connected to their wifi. Then if you are lucky enough to get to a site it is soooooooo slooooooow! I am sorry it is 2016 in one of the largest cities in the country, the wifi should be at least decent!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are clean and comfortable, A/C works great. Staff have always been friendly. Restaurant is ok. My biggest thing is the internet is really poor. I have been in a number of different rooms and have never had even a decent connection. First issue is the wifi drops in and out. The next issue is that I was unable to go to a number of sites (even though I was able to go to those sites on my phone which was not connected to their wifi. Then if you are lucky enough to get to a site it is soooooooo slooooooow! I am sorry it is 2016 in one of the largest cities in the country, the wifi should be at least decent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r356498597-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356498597</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>This is a great little hotel</t>
+  </si>
+  <si>
+    <t>I stayed here on my first trip to Houston and really enjoyed the stay. We picked it as it was close to my office and clients.Room was very good, TV with lots of free channels including sports (got to watch the premier league live), coffee machine etc. Wifi was also very good and bed was comfy. The Hotel has a sports bar for breakfast which was good but not remarkable. Not quite the huge American breakfast i was expecting (this was good). It has a gym and a small pool. They also have a shuttle bus which will take you anywhere in a 5 mile radius so it took us to the memorial mall on the Sunday which was very helpful. They also have a very good laundry service.There are also a couple of places to eat nearby a chipotle, a sushi and BBQ place if you don't fancy the hotel sports bar.Will definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here on my first trip to Houston and really enjoyed the stay. We picked it as it was close to my office and clients.Room was very good, TV with lots of free channels including sports (got to watch the premier league live), coffee machine etc. Wifi was also very good and bed was comfy. The Hotel has a sports bar for breakfast which was good but not remarkable. Not quite the huge American breakfast i was expecting (this was good). It has a gym and a small pool. They also have a shuttle bus which will take you anywhere in a 5 mile radius so it took us to the memorial mall on the Sunday which was very helpful. They also have a very good laundry service.There are also a couple of places to eat nearby a chipotle, a sushi and BBQ place if you don't fancy the hotel sports bar.Will definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r351597680-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351597680</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Adequate and friendly</t>
+  </si>
+  <si>
+    <t>My initial trip was for 5 days, here I am at day 14 and like part of the family, the staff are brilliant and very helpful. The rooms are spacious, and clean but don't expect views as it is a business area. There is a small gym and warm pool and a very good running track nearby in the Hershy Park. The hotel offers a courtesy shuttle to take you anywhere within 5 mile radius and collect you if you are ready before 8pm. An excellent service for business travelers, saves waiting on taxis, and for shoppers alike.There is a restaurant in the hotel but it is a private enterprise, don't expect to much room service though as they run their own hours, it is available but at set times. There are however plenty of restaurants within 3 minute walking distance. All in all ideal for a business trip, with free wi-fi.Tip: there is an iron but no trouser press, and the shower pressure could be better. However the same day laundry and cleaning service is first class.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>My initial trip was for 5 days, here I am at day 14 and like part of the family, the staff are brilliant and very helpful. The rooms are spacious, and clean but don't expect views as it is a business area. There is a small gym and warm pool and a very good running track nearby in the Hershy Park. The hotel offers a courtesy shuttle to take you anywhere within 5 mile radius and collect you if you are ready before 8pm. An excellent service for business travelers, saves waiting on taxis, and for shoppers alike.There is a restaurant in the hotel but it is a private enterprise, don't expect to much room service though as they run their own hours, it is available but at set times. There are however plenty of restaurants within 3 minute walking distance. All in all ideal for a business trip, with free wi-fi.Tip: there is an iron but no trouser press, and the shower pressure could be better. However the same day laundry and cleaning service is first class.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r345857190-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345857190</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average place but the housekeeping staff was great </t>
+  </si>
+  <si>
+    <t>Enjoyed my stay here.  Nothing that makes me say I'm in love with it but the housekeeping staff really went above and beyond! It was very clean and they were Super sweet! I would come back for them. Thank you Marisol. The location is great too..easy in and out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay here.  Nothing that makes me say I'm in love with it but the housekeeping staff really went above and beyond! It was very clean and they were Super sweet! I would come back for them. Thank you Marisol. The location is great too..easy in and out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r303020048-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303020048</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Moving trip</t>
+  </si>
+  <si>
+    <t>I stayed at this location last weekend (08/21-08/23).  This location was easy to find and is located in a safe area.  It is close to several restaurants and other shopping.  Check-in was very easy.  The room was large and very clean.  The hotel was very quiet. I was in a U-Haul truck and felt very secure with it in the parking lot.  The bar was convenient. I had some appetizers.  Breakfast in the same area was good. This property is in very good condition and appears to be newer.  I was moving my daughter to the area and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this location last weekend (08/21-08/23).  This location was easy to find and is located in a safe area.  It is close to several restaurants and other shopping.  Check-in was very easy.  The room was large and very clean.  The hotel was very quiet. I was in a U-Haul truck and felt very secure with it in the parking lot.  The bar was convenient. I had some appetizers.  Breakfast in the same area was good. This property is in very good condition and appears to be newer.  I was moving my daughter to the area and will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r293851167-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293851167</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Very good to sleep</t>
+  </si>
+  <si>
+    <t>It had been a while since my last stay in a holiday inn until this business trip. The attention is excellent, specially if one has a IHG platinum status. The rooms are very neat and comfortable. The Internet is not good for the lower floors, I recommend to ask for rooms above the third floor. The food is average, specially breakfasts. I'd rather go somewhere else to eat. Aside from the food issue, I would stay in this hotel when traveling to that area. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>It had been a while since my last stay in a holiday inn until this business trip. The attention is excellent, specially if one has a IHG platinum status. The rooms are very neat and comfortable. The Internet is not good for the lower floors, I recommend to ask for rooms above the third floor. The food is average, specially breakfasts. I'd rather go somewhere else to eat. Aside from the food issue, I would stay in this hotel when traveling to that area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r269960055-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269960055</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>West is best.?</t>
+  </si>
+  <si>
+    <t>I am a regular user of this hotel due to its proximity to our USA office however as far as hotels go this one has a few challenges, but to be fair if you are using it for business and you are only looking for a good night sleep, a bar, breakfast,  a bit of gym then this place will do the trick and do it well.  The hotel is clean and well maintained, front desk staff were very helpful and the shuttle service is useful....so there it is.  I will be back because it does what I want when I am visiting this part of the world.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I am a regular user of this hotel due to its proximity to our USA office however as far as hotels go this one has a few challenges, but to be fair if you are using it for business and you are only looking for a good night sleep, a bar, breakfast,  a bit of gym then this place will do the trick and do it well.  The hotel is clean and well maintained, front desk staff were very helpful and the shuttle service is useful....so there it is.  I will be back because it does what I want when I am visiting this part of the world.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r259679493-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259679493</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, poor restaurant</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on business because it's close to the office... Rooms were nice, front desk staff were nice, shuttle service is great... Restaurant was terrible, worst greasy steak I've ever had, service was average at best... Breakfast was included in the room rate, but 'not' the orange juice... Wifi was ok and the gym was small but fine for what I used it for... Didn't use the pool so can't comment... In summary, I'd probably stay here again if traveling alone, but won't be eating in the restaurant... MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on business because it's close to the office... Rooms were nice, front desk staff were nice, shuttle service is great... Restaurant was terrible, worst greasy steak I've ever had, service was average at best... Breakfast was included in the room rate, but 'not' the orange juice... Wifi was ok and the gym was small but fine for what I used it for... Didn't use the pool so can't comment... In summary, I'd probably stay here again if traveling alone, but won't be eating in the restaurant... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r256748081-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256748081</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>The hotel is well located in the energy corridor and easy access to both westheimer and katy fwyA few good restaurants around the corner and a shopping area a short drive awayThe hotel has a licensed bar and restaurant with room serviceThere is also a small mini mart inside for some essentialsThe room has a really small refrigerator and a reasonably sized tvWhat I don't seem to understand is why such international hotel chains have no locker in the rooms MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is well located in the energy corridor and easy access to both westheimer and katy fwyA few good restaurants around the corner and a shopping area a short drive awayThe hotel has a licensed bar and restaurant with room serviceThere is also a small mini mart inside for some essentialsThe room has a really small refrigerator and a reasonably sized tvWhat I don't seem to understand is why such international hotel chains have no locker in the rooms More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r254974071-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254974071</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel!  Great location.  Very clean. Great service</t>
+  </si>
+  <si>
+    <t>My fiance and I had an opportunity to stay at this hotel and it was more than we expected.  We had moved away from Houston but drove by this hotel almost every day since opening.   We were very surprised when we arrived as it is very nice.   Price reasonable.   Front desk staff very attentive.   Overall a very nice Valentine's Day weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>My fiance and I had an opportunity to stay at this hotel and it was more than we expected.  We had moved away from Houston but drove by this hotel almost every day since opening.   We were very surprised when we arrived as it is very nice.   Price reasonable.   Front desk staff very attentive.   Overall a very nice Valentine's Day weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r242519773-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242519773</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Nice Business Hotel in West Houston</t>
+  </si>
+  <si>
+    <t>I spent 3 nights here on business.  The rooms were good and the meals in the restaurant were very good.  Good location and convenient to many Houston energy business centers.  I will stay here again when next in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>I spent 3 nights here on business.  The rooms were good and the meals in the restaurant were very good.  Good location and convenient to many Houston energy business centers.  I will stay here again when next in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r240392834-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240392834</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Great hotel in upscale location</t>
+  </si>
+  <si>
+    <t>I discovered this place when I was looking for a hotel in the Houston Energy Corridor area. This hotel is a bit off the beaten path and I like it that way. The room was clean, comfortable and modern looking, particularly the sink in the bathroom. The staff was friendly and helpful. The fitness room was well appointed and everything worked. My only complaint is that the heater did not seem to work well. However, this is Houston and they are not used to cold weather.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>I discovered this place when I was looking for a hotel in the Houston Energy Corridor area. This hotel is a bit off the beaten path and I like it that way. The room was clean, comfortable and modern looking, particularly the sink in the bathroom. The staff was friendly and helpful. The fitness room was well appointed and everything worked. My only complaint is that the heater did not seem to work well. However, this is Houston and they are not used to cold weather.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r239979643-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239979643</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>Houston was very cold but the room heater was not effective.  I was shivering all the time.  They didn't deliver laundry to my room after charging a huge amount.  They said they had no people. . I asked for Taxi to Hobby airport.  They said it will cost $85 but the driver charged 95, said he didn't $5 change.  Didn't help in taking the bag or which troubled my back.  Overall avoidable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Houston was very cold but the room heater was not effective.  I was shivering all the time.  They didn't deliver laundry to my room after charging a huge amount.  They said they had no people. . I asked for Taxi to Hobby airport.  They said it will cost $85 but the driver charged 95, said he didn't $5 change.  Didn't help in taking the bag or which troubled my back.  Overall avoidable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r227918683-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227918683</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Exemplary ! This showcases what Holiday Inn can do when they get it all right !</t>
+  </si>
+  <si>
+    <t>Having just seen what Holiday Inn do when they do it badly (St.Louis) I was trepidatious on how this hotel would be. I was more than pleasantly surprised and can only give the highest recommendation for anyone to use this hotel if you are in the area.The infrastrcutrue works and the cleanliness of the hotel and freindlieness and welcome of the staff are exemplary. There are some issues in that the bar (sports bars must all be the same but ...) is very noisy, so the idea of relaxing over dinner does offer some challenges but there is an area outside and they can turn of the TV there and there are other restaurants nearby !Well done Holiay Inn !    I would happily stay here again !!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Having just seen what Holiday Inn do when they do it badly (St.Louis) I was trepidatious on how this hotel would be. I was more than pleasantly surprised and can only give the highest recommendation for anyone to use this hotel if you are in the area.The infrastrcutrue works and the cleanliness of the hotel and freindlieness and welcome of the staff are exemplary. There are some issues in that the bar (sports bars must all be the same but ...) is very noisy, so the idea of relaxing over dinner does offer some challenges but there is an area outside and they can turn of the TV there and there are other restaurants nearby !Well done Holiay Inn !    I would happily stay here again !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r227005068-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227005068</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Good choice in area</t>
+  </si>
+  <si>
+    <t>This is not a typical Holiday Inn. I am typically a Marriott/Hilton frequenter but I stay at this location because it's a work approved hotel. It's really a pleasant stay and has many nice features. One heads up is that this is truly a business area and many of the restaurants shut down at 10pm, including the bar/restaurant in this hotel. We arrived from the airport and walked in at 9:45 and they would not serve us.  There was only one lousy option within walking distance/immediate vicinity. Otherwise we found the front desk staff and many others to be extremely helpful and willing to go out of their way to make things easy and comfortable for you.The rooms have a modern look and feel, refrigerator and microwave. The furnishings are nice. The bed is average but comfortable. Water is hot all times of the morning and the internet good!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>This is not a typical Holiday Inn. I am typically a Marriott/Hilton frequenter but I stay at this location because it's a work approved hotel. It's really a pleasant stay and has many nice features. One heads up is that this is truly a business area and many of the restaurants shut down at 10pm, including the bar/restaurant in this hotel. We arrived from the airport and walked in at 9:45 and they would not serve us.  There was only one lousy option within walking distance/immediate vicinity. Otherwise we found the front desk staff and many others to be extremely helpful and willing to go out of their way to make things easy and comfortable for you.The rooms have a modern look and feel, refrigerator and microwave. The furnishings are nice. The bed is average but comfortable. Water is hot all times of the morning and the internet good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r222023655-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222023655</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay and Entertain!</t>
+  </si>
+  <si>
+    <t>I stay here for business all of the time and it has everything I need.  It is close to my client, close to Terry Hershey Park for a nice run, it is minutes away from CityCentre, and if you need to go towards downtown in the evenings... you are basically going against traffic.  The hotel still has a nice new feel and the staff is the best.  They make it feel like my home away from home.  The rooms are big and have a microwave and fridge... if you need them.The hotel restaurant is also excellent.  Great food and they are able to arrange happy hours for me in very short notice.  The bar is awesome as well.  They have some of the best beer selections in Houston... some are impossible to find around town, but you can find them here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>I stay here for business all of the time and it has everything I need.  It is close to my client, close to Terry Hershey Park for a nice run, it is minutes away from CityCentre, and if you need to go towards downtown in the evenings... you are basically going against traffic.  The hotel still has a nice new feel and the staff is the best.  They make it feel like my home away from home.  The rooms are big and have a microwave and fridge... if you need them.The hotel restaurant is also excellent.  Great food and they are able to arrange happy hours for me in very short notice.  The bar is awesome as well.  They have some of the best beer selections in Houston... some are impossible to find around town, but you can find them here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r208008651-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208008651</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Houston Business Trip</t>
+  </si>
+  <si>
+    <t>Very good Hotel with good staff.Rooms are clean and well serviced and comes with Microwave and Fridge. Breakfast was good but i would say the two evening meals where not that good .Overall a good experience and would consider again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Very good Hotel with good staff.Rooms are clean and well serviced and comes with Microwave and Fridge. Breakfast was good but i would say the two evening meals where not that good .Overall a good experience and would consider again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r206650109-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206650109</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Clean and New</t>
+  </si>
+  <si>
+    <t>The girl at the front desk was dealing with a *very* difficult guest (you know, one of those people that no matter what you do, you can't please them) when I arrived to check-in.  There was a delay of about 20 minutes while she was dealing with this persons issues.  I can't blame the hotel for this, it was not their fault.  The girl behind the desk kept shooting me apologetic looks, and I kept motioning it was fine.  Once she was able to get to me, she was VERY apologetic, polite and friendly.  I can't say that I would have been able to stay as calm and collected as she did in that situation.  she was very professional.
+This hotel is fairly new (I'm not sure when it opened, but it looks less than a year old).  Everything was very clean as a result.  
+Had dinner in the onsite restaurant -- can't exactly remember what it was... a chicken sandwich of some sort.  Wasn't terrible.  
+I especially liked that they had a shower and not a tub in my room.  Very modern in decor.  
+The value was spot on. 
+If I had one complaint, it was there was an employee in the lobby (i'm not sure what his job was) sitting there in uniform playing on his cell phone.  This just looks unprofessional to me.  Employees should not have their phones out for personal use in view of the...The girl at the front desk was dealing with a *very* difficult guest (you know, one of those people that no matter what you do, you can't please them) when I arrived to check-in.  There was a delay of about 20 minutes while she was dealing with this persons issues.  I can't blame the hotel for this, it was not their fault.  The girl behind the desk kept shooting me apologetic looks, and I kept motioning it was fine.  Once she was able to get to me, she was VERY apologetic, polite and friendly.  I can't say that I would have been able to stay as calm and collected as she did in that situation.  she was very professional. This hotel is fairly new (I'm not sure when it opened, but it looks less than a year old).  Everything was very clean as a result.   Had dinner in the onsite restaurant -- can't exactly remember what it was... a chicken sandwich of some sort.  Wasn't terrible.   I especially liked that they had a shower and not a tub in my room.  Very modern in decor.   The value was spot on. If I had one complaint, it was there was an employee in the lobby (i'm not sure what his job was) sitting there in uniform playing on his cell phone.  This just looks unprofessional to me.  Employees should not have their phones out for personal use in view of the public in my opinion in any type of business.  Maybe he was off the clock or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>The girl at the front desk was dealing with a *very* difficult guest (you know, one of those people that no matter what you do, you can't please them) when I arrived to check-in.  There was a delay of about 20 minutes while she was dealing with this persons issues.  I can't blame the hotel for this, it was not their fault.  The girl behind the desk kept shooting me apologetic looks, and I kept motioning it was fine.  Once she was able to get to me, she was VERY apologetic, polite and friendly.  I can't say that I would have been able to stay as calm and collected as she did in that situation.  she was very professional.
+This hotel is fairly new (I'm not sure when it opened, but it looks less than a year old).  Everything was very clean as a result.  
+Had dinner in the onsite restaurant -- can't exactly remember what it was... a chicken sandwich of some sort.  Wasn't terrible.  
+I especially liked that they had a shower and not a tub in my room.  Very modern in decor.  
+The value was spot on. 
+If I had one complaint, it was there was an employee in the lobby (i'm not sure what his job was) sitting there in uniform playing on his cell phone.  This just looks unprofessional to me.  Employees should not have their phones out for personal use in view of the...The girl at the front desk was dealing with a *very* difficult guest (you know, one of those people that no matter what you do, you can't please them) when I arrived to check-in.  There was a delay of about 20 minutes while she was dealing with this persons issues.  I can't blame the hotel for this, it was not their fault.  The girl behind the desk kept shooting me apologetic looks, and I kept motioning it was fine.  Once she was able to get to me, she was VERY apologetic, polite and friendly.  I can't say that I would have been able to stay as calm and collected as she did in that situation.  she was very professional. This hotel is fairly new (I'm not sure when it opened, but it looks less than a year old).  Everything was very clean as a result.   Had dinner in the onsite restaurant -- can't exactly remember what it was... a chicken sandwich of some sort.  Wasn't terrible.   I especially liked that they had a shower and not a tub in my room.  Very modern in decor.   The value was spot on. If I had one complaint, it was there was an employee in the lobby (i'm not sure what his job was) sitting there in uniform playing on his cell phone.  This just looks unprofessional to me.  Employees should not have their phones out for personal use in view of the public in my opinion in any type of business.  Maybe he was off the clock or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r200852867-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200852867</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This hotel is very nice, very clean and has great staff. The rooms are not huge, but they provide plenty of space. They have refrigerators and microwaves. No noise at night. The pool is small but nice. We would most definitely stay again, especially at the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is very nice, very clean and has great staff. The rooms are not huge, but they provide plenty of space. They have refrigerators and microwaves. No noise at night. The pool is small but nice. We would most definitely stay again, especially at the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r195077602-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195077602</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Meets the Expected Levels of Holiday Inn Express Quality</t>
+  </si>
+  <si>
+    <t>When you stay at an HIE you expect a large, clean room, a comfortable bed, and a good hot breakfast. This HIE meets those expectations and with advance booking the prices are below what you might expect. This HIE is within easy walking distance to several restaurants. I liked the microwave, and refrigerator in the room and really liked the fact that they had wired internet. Too often when you stay at a room at the end of the hall wireless I-net gets spotty. The wired was fast and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>When you stay at an HIE you expect a large, clean room, a comfortable bed, and a good hot breakfast. This HIE meets those expectations and with advance booking the prices are below what you might expect. This HIE is within easy walking distance to several restaurants. I liked the microwave, and refrigerator in the room and really liked the fact that they had wired internet. Too often when you stay at a room at the end of the hall wireless I-net gets spotty. The wired was fast and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r188458420-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188458420</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>Good location good hotel</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, clean.  Good parking, several restaurants nearby, but Sporting News Grill has a surprisingly good ribeye steak.  Good for business travel.  Priority club spin the wheel was fun and clever!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r185804745-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185804745</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Pool table</t>
+  </si>
+  <si>
+    <t>This is much better than any other Holiday Inn I have ever stayed at. Very high quality rooms and quite large but maybe this size is normal in Texas?The food in the restaurant was really good for breakfast and dinner.The bar was also very comfortable and the staff friendly and efficient.Many of the people staying were like me, on business and alone. One of the things I wish hotels would do is maybe have a pool table or some other bar games to give us something to do in the evenings. Overall very good but some form of entertainment would have been the icing on the cake.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r179141782-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179141782</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Perfect location for business</t>
+  </si>
+  <si>
+    <t>Perfect location for business Comfy beds with choice of soft or hard pillows.Clean ad spacious roomsMorning buffet average but can order off of menu tooWeight room and pool are on the small sideStaff always helpful and happy Will stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Perfect location for business Comfy beds with choice of soft or hard pillows.Clean ad spacious roomsMorning buffet average but can order off of menu tooWeight room and pool are on the small sideStaff always helpful and happy Will stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r177545666-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177545666</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>A Wonderful Weekend</t>
+  </si>
+  <si>
+    <t>I needed a place not too far away from home . . . some place where I could focus, without distractions, and get through the grueling tasks of annual certification classes and exams for various Medicare plans.  What a wonderful place to go for good food (the salmon I had for Friday's dinner was excellent, and the next morning's breakfast was also superb), a super, super clean and well-appointed room, and really nice folks who work there.  When I ventured out for a break there was a nice, comfortable seating area in the lobby, and the folks at the front desk were friendly and helpful.  If have had my share of traveling, sometimes from one place to the next from one day to the next.  This is the kind of place I would love to have when I'm away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>I needed a place not too far away from home . . . some place where I could focus, without distractions, and get through the grueling tasks of annual certification classes and exams for various Medicare plans.  What a wonderful place to go for good food (the salmon I had for Friday's dinner was excellent, and the next morning's breakfast was also superb), a super, super clean and well-appointed room, and really nice folks who work there.  When I ventured out for a break there was a nice, comfortable seating area in the lobby, and the folks at the front desk were friendly and helpful.  If have had my share of traveling, sometimes from one place to the next from one day to the next.  This is the kind of place I would love to have when I'm away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r169363658-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169363658</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Great Staff at a great hotel!</t>
+  </si>
+  <si>
+    <t>Last week, I spent several days at this Holiday Inn location for a training meeting for work.  Not only was the room, sports bar and conference facilities great, but the staff was excellent as well.  After a late night with the work team, I encountered Lydia at the front desk who offered myself and my group members wake up calls as well as took it upon herself to give us followup calls as well to ensure we didn't miss our meeting!  Furthermore, overhearing that I was dealing with a summer cold, she also pointed out the availability of cold medicine at the hotel store.  It appears as if she has a heart for hospitality and will go far in this industry!MoreShow less</t>
+  </si>
+  <si>
+    <t>Last week, I spent several days at this Holiday Inn location for a training meeting for work.  Not only was the room, sports bar and conference facilities great, but the staff was excellent as well.  After a late night with the work team, I encountered Lydia at the front desk who offered myself and my group members wake up calls as well as took it upon herself to give us followup calls as well to ensure we didn't miss our meeting!  Furthermore, overhearing that I was dealing with a summer cold, she also pointed out the availability of cold medicine at the hotel store.  It appears as if she has a heart for hospitality and will go far in this industry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r162734185-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162734185</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Good hotel, would have given five stars if the breakfast was better</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights on a business trip. The staff is friendly and the rooms are spatious. The airco's are at the floor in front of the window and do make a lot of noise. Especially because they turn on and off during the night. You will get used to it after after a while but it can be disturbing for some.Internet speed is great. I bought 3 Apple devices for the family during my stay and a downloaded quite some apps in parallel at very high speed so that was great. It was the highest speed I ever encountered at a hotel so far.With regards to the breakfast I have my main issue: although the staff is very helpful, the breakfast is really basic (motel level) and if you for example want and orange juice you have to pay extra for that. They can better add a few dollars to the room rate and fix that.Summary: all this has of course to measured against the pricing levels and based on that I give it 4 out of 5 with the breakfast being the main reason for missing the 5th star.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights on a business trip. The staff is friendly and the rooms are spatious. The airco's are at the floor in front of the window and do make a lot of noise. Especially because they turn on and off during the night. You will get used to it after after a while but it can be disturbing for some.Internet speed is great. I bought 3 Apple devices for the family during my stay and a downloaded quite some apps in parallel at very high speed so that was great. It was the highest speed I ever encountered at a hotel so far.With regards to the breakfast I have my main issue: although the staff is very helpful, the breakfast is really basic (motel level) and if you for example want and orange juice you have to pay extra for that. They can better add a few dollars to the room rate and fix that.Summary: all this has of course to measured against the pricing levels and based on that I give it 4 out of 5 with the breakfast being the main reason for missing the 5th star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r161107955-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161107955</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>My second home</t>
+  </si>
+  <si>
+    <t>I have frequented this hotel so much that I literally know the staff... I am here on business at odd times during the year... I love the location... you are near great restaurants and there isnt much traffic... havent had a chance to frequent Katy Mills... but that is on the list of things to do.. I had my reservations about Holiday Inn, but it seems they have really up'ed their tactics to compete with other hotel chains...rooms are massive... I thoroughly enjoy my stay everytime I come..</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r160328949-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160328949</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about...My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about 10 miles away to the Marriot Hotel that they normally stay in when they come to Houston. Although the staff was nice, this experience was the worst that I have ever had and I can absolutely say that I will NEVER stay at ANY Holiday Inn Express hotel EVER again. It is now almost midnight and after I arrived back at home and showered, I am STILL itching from the nightmare. Beware travelers.....check your rtooms BEFORE you actually check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2013</t>
+  </si>
+  <si>
+    <t>My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about...My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about 10 miles away to the Marriot Hotel that they normally stay in when they come to Houston. Although the staff was nice, this experience was the worst that I have ever had and I can absolutely say that I will NEVER stay at ANY Holiday Inn Express hotel EVER again. It is now almost midnight and after I arrived back at home and showered, I am STILL itching from the nightmare. Beware travelers.....check your rtooms BEFORE you actually check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r154302078-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154302078</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is a really nice property. It is maintained in as new condition. Friendly staff and comfortable rooms. Close to the Katy freeway, but far enough away for a quite stay. The in house bar and grill has good food that is reasonably priced. I have stayed here several times and will continue to do so.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r153072618-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153072618</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Service Desk nightmare!</t>
+  </si>
+  <si>
+    <t>The particular person at the front desk that I dealt with in the evening did not know his job and was unfriendly. I was issued a room already occupied by someone else! The front desk tenant hands me a room card for 323, I unlock the room with a funny feeling as to why all the lights were on and TV blaring. As I push the door all the way open, I see some man sitting on the bed staring at me with a puzzled look on his face. I just back up and let the door close and made my way all the way back down stairs to the front desk. I get a new card and an emotionless, "sorry bout that". Besides that episode, the morning breakfast buffet was great and staff was super kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The particular person at the front desk that I dealt with in the evening did not know his job and was unfriendly. I was issued a room already occupied by someone else! The front desk tenant hands me a room card for 323, I unlock the room with a funny feeling as to why all the lights were on and TV blaring. As I push the door all the way open, I see some man sitting on the bed staring at me with a puzzled look on his face. I just back up and let the door close and made my way all the way back down stairs to the front desk. I get a new card and an emotionless, "sorry bout that". Besides that episode, the morning breakfast buffet was great and staff was super kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r152184118-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152184118</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Minuscule water pressure, lumpy pillows, no TUB!!!!</t>
+  </si>
+  <si>
+    <t>Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche...Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche down the street where the atmosphere lends itself to grousing on Trip Advisir about my less than satisfactory stay! I will not stay st the Rldridge Parkway H.I. again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche...Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche down the street where the atmosphere lends itself to grousing on Trip Advisir about my less than satisfactory stay! I will not stay st the Rldridge Parkway H.I. again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r150239699-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150239699</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>Two things that are important to me:  free internet and free parking.  Checked :-)  Next, the bed:  It was comfortable.  I got a good night sleep.  No tossing and turning.  I always ask for a room at the end of the hallway or away from other guests.  I'm a light sleeper and that's what I do to assure that I get some sleep.  The front desk was very accommodating.Then there's the bathroom.  What I'm looking for is cleanliness and the hotel passed with flying colors. I didn't eat at the hotel restaurant because there were plenty of other places to eat within a short drive.  That's another plus in my book.Overall, I had a pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Two things that are important to me:  free internet and free parking.  Checked :-)  Next, the bed:  It was comfortable.  I got a good night sleep.  No tossing and turning.  I always ask for a room at the end of the hallway or away from other guests.  I'm a light sleeper and that's what I do to assure that I get some sleep.  The front desk was very accommodating.Then there's the bathroom.  What I'm looking for is cleanliness and the hotel passed with flying colors. I didn't eat at the hotel restaurant because there were plenty of other places to eat within a short drive.  That's another plus in my book.Overall, I had a pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r148646584-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148646584</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>A clean place to get a good night's sleep</t>
+  </si>
+  <si>
+    <t>I stayed here in the summer of 2012. Overall, it was a positive experience. Because the hotel was constructed in the last couple of years, it was clean and modern. The rooms were quiet and relaxing. The bathrooms despite being small, had a modern vanity that gave it an upscale feel. The only minor complaint I have was the size of the room. For a new hotel, the rooms were incredibly small. They were big enough only for the furniture, and not an inch more. The bathroom was minimally sized (large enough to fit a standard bathtub) and because the bathroom was so small, the beds protruded out into the walkway. As a result, I constantly bumped myself on the edge of the bed closest to the door. In a new hotel, I would have expected the bathroom/closet area be large enough to conceal the edge of the bed. While this was no five-star resort, for what it was, it was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here in the summer of 2012. Overall, it was a positive experience. Because the hotel was constructed in the last couple of years, it was clean and modern. The rooms were quiet and relaxing. The bathrooms despite being small, had a modern vanity that gave it an upscale feel. The only minor complaint I have was the size of the room. For a new hotel, the rooms were incredibly small. They were big enough only for the furniture, and not an inch more. The bathroom was minimally sized (large enough to fit a standard bathtub) and because the bathroom was so small, the beds protruded out into the walkway. As a result, I constantly bumped myself on the edge of the bed closest to the door. In a new hotel, I would have expected the bathroom/closet area be large enough to conceal the edge of the bed. While this was no five-star resort, for what it was, it was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r148615136-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148615136</t>
+  </si>
+  <si>
+    <t>While the rooms were nice, you could hear everything in the adjoining rooms.</t>
+  </si>
+  <si>
+    <t>I am a frequent guest in IHG hotels.  While the hotel was clean, well appointed rooms and the staff was courteous, you could hear all conversations between adjoining rooms.  We spent two nights here.  On the first night, we went to bed at 9:00.  Approximately 30 minutes later, we were awakened to the nieghbors on one side returning to their room.  Despite the fact that I had my sound machine on LOUD, I could still hear them.  At 3:00 AM the guests on the other side arrived from Japan.  While the adult showered, the son must have turned on his headphones and proceeded to serenade us in japanese at the top of his lungs.To the front desks's credit, they offered to move us.  However my kids (who can sleep through a hurricane) were asleep and I didn't wish to move them.  While the second night was a little better, you could still hear the adjoining guests.  This is unacceptable for such a nice, new hotel to have this problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>I am a frequent guest in IHG hotels.  While the hotel was clean, well appointed rooms and the staff was courteous, you could hear all conversations between adjoining rooms.  We spent two nights here.  On the first night, we went to bed at 9:00.  Approximately 30 minutes later, we were awakened to the nieghbors on one side returning to their room.  Despite the fact that I had my sound machine on LOUD, I could still hear them.  At 3:00 AM the guests on the other side arrived from Japan.  While the adult showered, the son must have turned on his headphones and proceeded to serenade us in japanese at the top of his lungs.To the front desks's credit, they offered to move us.  However my kids (who can sleep through a hurricane) were asleep and I didn't wish to move them.  While the second night was a little better, you could still hear the adjoining guests.  This is unacceptable for such a nice, new hotel to have this problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r141992523-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141992523</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>It would have been "excellent" if not for the alarm...</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel quite a few times.  The location for my purposes can't be beat.  The staff is friendly. The property is clean and the rooms are comfortable.  The restaurant/bar works if you don't feel like venturing out - though right around the perimeter of the parking lot is a sushi place, Jimmy Johns, some bar and grill.  There is a bbq place and some other options across the street.  The area is nice if you are a walker or jogger.  This review would get an excellent if it weren't for the fire alarm that went off at 2 am....again shortly after....then again.  And though by this time I was in some kind of fuzzy sleep coma I think it may have went off again???  Anyway, stuff happens and this is where I will stay again on my next trip into Houston without question.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel quite a few times.  The location for my purposes can't be beat.  The staff is friendly. The property is clean and the rooms are comfortable.  The restaurant/bar works if you don't feel like venturing out - though right around the perimeter of the parking lot is a sushi place, Jimmy Johns, some bar and grill.  There is a bbq place and some other options across the street.  The area is nice if you are a walker or jogger.  This review would get an excellent if it weren't for the fire alarm that went off at 2 am....again shortly after....then again.  And though by this time I was in some kind of fuzzy sleep coma I think it may have went off again???  Anyway, stuff happens and this is where I will stay again on my next trip into Houston without question.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r138794069-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138794069</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Wonderful week!</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and the staff outstanding!  Stayed there five nights and enjoyed each one!  Food in the Sporting News Grill Restuarant was very good and well priced.  Their number one training point must be "friendliness!  Every member of their staff greeted me and offered assistance.  Nice job with your selection of people - which they could train other hotels!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r138121674-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138121674</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>The Best Hotel West of the Beltway in Houston!</t>
+  </si>
+  <si>
+    <t>Bottom line - I've stayed at many hotels west of the beltway and I-10 in Houston and this hotel is Excellent across the board!  Clean, great service, great staff, fun bar and great food!  Nice area with many places to go hangout and eat in walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r136430445-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136430445</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, efficient, friendly</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel on more occasions than I can remember, usually for one or two nights.  Most recently I stayed on two separate occasions in July.The hotel is comfortable, efficient and clean but perhaps slightly lacking in atmosphere.Each room I have had has been well-sized and suitably furnished.  The decor in the rooms is dark and quite formal which can feel a little heavy but as it is still very new the overall effect is smart and business-like.  The beds are comfortable and the wifi works well.  I have found the air-con to be on the noisy side and the setting options appear to have been limited.  A big plus is that the rooms are well provided with power outlets where a business traveller needs them including beside the bed for charging phone, iPad etc.The pool feels clean and is pleasant to use.  It is not large but does not appear to be heavily used so it is often possible to swim diagonally to get an extra stroke in.Breakfast is typical for a Holiday Inn and the standard of service has improved noticeably since my previous visit in May: more staff and much more responsive.I have found the front desk staff to be polite and attentive.  The shop, whilst small, has always managed to provide essentials when required.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel on more occasions than I can remember, usually for one or two nights.  Most recently I stayed on two separate occasions in July.The hotel is comfortable, efficient and clean but perhaps slightly lacking in atmosphere.Each room I have had has been well-sized and suitably furnished.  The decor in the rooms is dark and quite formal which can feel a little heavy but as it is still very new the overall effect is smart and business-like.  The beds are comfortable and the wifi works well.  I have found the air-con to be on the noisy side and the setting options appear to have been limited.  A big plus is that the rooms are well provided with power outlets where a business traveller needs them including beside the bed for charging phone, iPad etc.The pool feels clean and is pleasant to use.  It is not large but does not appear to be heavily used so it is often possible to swim diagonally to get an extra stroke in.Breakfast is typical for a Holiday Inn and the standard of service has improved noticeably since my previous visit in May: more staff and much more responsive.I have found the front desk staff to be polite and attentive.  The shop, whilst small, has always managed to provide essentials when required.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r133857195-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133857195</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Nice, clean, new hotel</t>
+  </si>
+  <si>
+    <t>We only stayed one night on a quick weekend trip but the hotel was very nice, clean, new and comfortable in a nice part of town.  We used priceline and got a great deal using the "express deals" tab.  It was $47 plus tax for a Saturday night stay.  I would definitely recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r132514876-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132514876</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>Stayed here over Father's Day weekend (without my family) and wanted to do my usual Father's Day fishing trip. The staff couldn't have been more helpful - they helped me work out the place to go and they organised the Holiday Inn bus to take me there and back via the Academy to get my bait and licence - I had a great time!The facilities were very good - I used the free wifi and the coffee machine in the room. Very quiet so slept very well.I've marked them down on location only because of the crazy long term road works nearby which meant that the journey to the office (just over a mile and a half away) took nearly 45 minutes in the morning, and twenty minutes in the evening.I used the restaurant for my meals and once I figured out the truly enormous servings I managed to find some items on the menu that were more reasonably sized. I've marked down the breakfast - the food was fine, but the service was terrible - one morning they mixed up the orders and after two attempts to get it right I walked out. On the last morning they took over thirty minutes to serve up. Unlike the reception desk, the restaurant staff appear very young and inexperienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here over Father's Day weekend (without my family) and wanted to do my usual Father's Day fishing trip. The staff couldn't have been more helpful - they helped me work out the place to go and they organised the Holiday Inn bus to take me there and back via the Academy to get my bait and licence - I had a great time!The facilities were very good - I used the free wifi and the coffee machine in the room. Very quiet so slept very well.I've marked them down on location only because of the crazy long term road works nearby which meant that the journey to the office (just over a mile and a half away) took nearly 45 minutes in the morning, and twenty minutes in the evening.I used the restaurant for my meals and once I figured out the truly enormous servings I managed to find some items on the menu that were more reasonably sized. I've marked down the breakfast - the food was fine, but the service was terrible - one morning they mixed up the orders and after two attempts to get it right I walked out. On the last morning they took over thirty minutes to serve up. Unlike the reception desk, the restaurant staff appear very young and inexperienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r130795210-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130795210</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Superb business hotel</t>
+  </si>
+  <si>
+    <t>Very good quality hotel, I've stayed here a couple times this year and on both occasions I thought it was excellent.  I found the check-in staff to be very helpful and cheerful, and the restaurant staff were very warm and welcoming, exactly what you need if you're travelling on business.  The hotel room was fully equipped and the air con very effective.  The laundry service is good and there are even manual laundry facilities in the hotel if you want to save a lot of money.  The food in the restaurant is very good, I ate there a lot and enjoyed it every time.  The location of the hotel is ideal for business, just bare in mind that you will need a car if you want to do more than sit in your hotel room.  There is a free hotel shuttle service, and the Memorial Mall is within the range of this so you have something to do in the evening at least.  The only room for improvement in the hotel are that the restaurant should maybe offer some healthier options, the free coffee in the hotel lobby tastes very wrong, and they might want to consider sound-proofing the rooms a little when they next renovate them because there is quite a lot of sound bleed-through between rooms.
+Overally, I would recommend this hotel to anybody travelling on business, or to anybody passing through the area.  I will definitely be...Very good quality hotel, I've stayed here a couple times this year and on both occasions I thought it was excellent.  I found the check-in staff to be very helpful and cheerful, and the restaurant staff were very warm and welcoming, exactly what you need if you're travelling on business.  The hotel room was fully equipped and the air con very effective.  The laundry service is good and there are even manual laundry facilities in the hotel if you want to save a lot of money.  The food in the restaurant is very good, I ate there a lot and enjoyed it every time.  The location of the hotel is ideal for business, just bare in mind that you will need a car if you want to do more than sit in your hotel room.  There is a free hotel shuttle service, and the Memorial Mall is within the range of this so you have something to do in the evening at least.  The only room for improvement in the hotel are that the restaurant should maybe offer some healthier options, the free coffee in the hotel lobby tastes very wrong, and they might want to consider sound-proofing the rooms a little when they next renovate them because there is quite a lot of sound bleed-through between rooms.Overally, I would recommend this hotel to anybody travelling on business, or to anybody passing through the area.  I will definitely be returning here in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Very good quality hotel, I've stayed here a couple times this year and on both occasions I thought it was excellent.  I found the check-in staff to be very helpful and cheerful, and the restaurant staff were very warm and welcoming, exactly what you need if you're travelling on business.  The hotel room was fully equipped and the air con very effective.  The laundry service is good and there are even manual laundry facilities in the hotel if you want to save a lot of money.  The food in the restaurant is very good, I ate there a lot and enjoyed it every time.  The location of the hotel is ideal for business, just bare in mind that you will need a car if you want to do more than sit in your hotel room.  There is a free hotel shuttle service, and the Memorial Mall is within the range of this so you have something to do in the evening at least.  The only room for improvement in the hotel are that the restaurant should maybe offer some healthier options, the free coffee in the hotel lobby tastes very wrong, and they might want to consider sound-proofing the rooms a little when they next renovate them because there is quite a lot of sound bleed-through between rooms.
+Overally, I would recommend this hotel to anybody travelling on business, or to anybody passing through the area.  I will definitely be...Very good quality hotel, I've stayed here a couple times this year and on both occasions I thought it was excellent.  I found the check-in staff to be very helpful and cheerful, and the restaurant staff were very warm and welcoming, exactly what you need if you're travelling on business.  The hotel room was fully equipped and the air con very effective.  The laundry service is good and there are even manual laundry facilities in the hotel if you want to save a lot of money.  The food in the restaurant is very good, I ate there a lot and enjoyed it every time.  The location of the hotel is ideal for business, just bare in mind that you will need a car if you want to do more than sit in your hotel room.  There is a free hotel shuttle service, and the Memorial Mall is within the range of this so you have something to do in the evening at least.  The only room for improvement in the hotel are that the restaurant should maybe offer some healthier options, the free coffee in the hotel lobby tastes very wrong, and they might want to consider sound-proofing the rooms a little when they next renovate them because there is quite a lot of sound bleed-through between rooms.Overally, I would recommend this hotel to anybody travelling on business, or to anybody passing through the area.  I will definitely be returning here in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r129546923-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129546923</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Good value for somewhere to sleep</t>
+  </si>
+  <si>
+    <t>To quote another reviewer ”This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car........”Perfectly acceptable – large clean rooms (and far better than a grubby relation nearby I stayed in recently when this was full) but you wouldn’t want to stay here for longer than you had to.  The pool was a puddle, the breakfast poor and I would starve before I would eat in the bar at night (there are a few shops and restaurants outside the hotel  so there are other options, or if you are stuck there is a microwave in the room).  If you're out all day and just want somewhere to shower and sleep, this is very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>To quote another reviewer ”This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car........”Perfectly acceptable – large clean rooms (and far better than a grubby relation nearby I stayed in recently when this was full) but you wouldn’t want to stay here for longer than you had to.  The pool was a puddle, the breakfast poor and I would starve before I would eat in the bar at night (there are a few shops and restaurants outside the hotel  so there are other options, or if you are stuck there is a microwave in the room).  If you're out all day and just want somewhere to shower and sleep, this is very good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r125477494-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125477494</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>Excellent room but no body lotion available at room</t>
+  </si>
+  <si>
+    <t>A issue I faced was at the meeting room. I had a group of about 22 people and was told that if we all use the restaurant of the hotel, we would not be charged for the meeting room, told by the manager. Few days later, I received the cotation to use the room, this was not the deal. They gave me a good discount but this was not the initial deal. I was very disappointed with their behavior, we went to another hotel and got the meeting room for free!By the way, I had to pick up a body lotion and a shower cap at the lobby....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, IHGCare at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2012</t>
+  </si>
+  <si>
+    <t>A issue I faced was at the meeting room. I had a group of about 22 people and was told that if we all use the restaurant of the hotel, we would not be charged for the meeting room, told by the manager. Few days later, I received the cotation to use the room, this was not the deal. They gave me a good discount but this was not the initial deal. I was very disappointed with their behavior, we went to another hotel and got the meeting room for free!By the way, I had to pick up a body lotion and a shower cap at the lobby....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r121951996-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121951996</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>The Nicest Holiday Inn I have stayed at</t>
+  </si>
+  <si>
+    <t>My trip was one night only- However this Holiday Inn had the nicest and newest rooms I have ever seen. Of course the service in TX is always warm and great! Good place to stay in town.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r119528556-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119528556</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>Paper thin walls</t>
+  </si>
+  <si>
+    <t>-nice, new upon entering-friendly, accommodating staff but gave my reserved room away the 1st night &amp; had to put me in a handicapped room. The general manager upgraded me the next night to a King "suite". It was 1/4 of the size of the handicapped room, with a couch shoved into the corner. I suppose the couch I'd what differentiates the "suites" from the regular rooms-could hear EVERYTHING my neighbors said or did, unfortunately. (He had a cold...She "over active bladder syndrome" &amp; trouble w a daughter-in-law back home)-when bathroom flooded &amp; toilet flushing mechanism broke, I cut my losses &amp; moved to the fabulous new Hyatt Place in Sugar Land for $80 a night! Worth the drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>-nice, new upon entering-friendly, accommodating staff but gave my reserved room away the 1st night &amp; had to put me in a handicapped room. The general manager upgraded me the next night to a King "suite". It was 1/4 of the size of the handicapped room, with a couch shoved into the corner. I suppose the couch I'd what differentiates the "suites" from the regular rooms-could hear EVERYTHING my neighbors said or did, unfortunately. (He had a cold...She "over active bladder syndrome" &amp; trouble w a daughter-in-law back home)-when bathroom flooded &amp; toilet flushing mechanism broke, I cut my losses &amp; moved to the fabulous new Hyatt Place in Sugar Land for $80 a night! Worth the drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r118263578-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118263578</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Good value for your money.</t>
+  </si>
+  <si>
+    <t>Stayed four nights while on business in Houston. Check in was smooth. Large and light lobby. Free parking just outside the front entrance. Room was large, with refriferator and microwave oven. No minibar, but they sell drinks and snack in the lobby, inexpensive compared to usual hotel prices. The bathroom was very nice and modern, the soap and shampoo of the cheap sort, so good, so bring your own if you are picky... Free wi-fi, worked excellent! Everything was clean. 
+Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.
+There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. 
+This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but...Stayed four nights while on business in Houston. Check in was smooth. Large and light lobby. Free parking just outside the front entrance. Room was large, with refriferator and microwave oven. No minibar, but they sell drinks and snack in the lobby, inexpensive compared to usual hotel prices. The bathroom was very nice and modern, the soap and shampoo of the cheap sort, so good, so bring your own if you are picky... Free wi-fi, worked excellent! Everything was clean. Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but if you want to do some serious shopping, Memorial City Mall is excellent, and not far, i would guess 10-15 minute drive, depending on traffic.All in all, can recommend this hotel if you need somewhere to stay in this area of Houston, and the price was I got was very good, around USD 100 plus tax.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Stayed four nights while on business in Houston. Check in was smooth. Large and light lobby. Free parking just outside the front entrance. Room was large, with refriferator and microwave oven. No minibar, but they sell drinks and snack in the lobby, inexpensive compared to usual hotel prices. The bathroom was very nice and modern, the soap and shampoo of the cheap sort, so good, so bring your own if you are picky... Free wi-fi, worked excellent! Everything was clean. 
+Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.
+There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. 
+This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but...Stayed four nights while on business in Houston. Check in was smooth. Large and light lobby. Free parking just outside the front entrance. Room was large, with refriferator and microwave oven. No minibar, but they sell drinks and snack in the lobby, inexpensive compared to usual hotel prices. The bathroom was very nice and modern, the soap and shampoo of the cheap sort, so good, so bring your own if you are picky... Free wi-fi, worked excellent! Everything was clean. Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but if you want to do some serious shopping, Memorial City Mall is excellent, and not far, i would guess 10-15 minute drive, depending on traffic.All in all, can recommend this hotel if you need somewhere to stay in this area of Houston, and the price was I got was very good, around USD 100 plus tax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r116608553-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116608553</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Definitely recommended</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a period of 6 days in early August 2011. I travel a lot for my work and I have stayed in my fare share of hotels to be a good judge. I look at things like Laundry service, general condition and comfort of the bed and furniture. Something that could sound stupid but could be very annoying is TV signal quality and TV type. How big is the shower and is the toilet comfortable ? How is the dining and is it priced well. I can honoustly say at this Holiday Inn I could hardly fault anything. the hotel is in immaculate condition and the things mentioned above all were well up to scratch. The dining is on the sports grill in the hotel, and there as well, service was excellent and the food great. I would highly recommend this hotel for a stay of any length.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a period of 6 days in early August 2011. I travel a lot for my work and I have stayed in my fare share of hotels to be a good judge. I look at things like Laundry service, general condition and comfort of the bed and furniture. Something that could sound stupid but could be very annoying is TV signal quality and TV type. How big is the shower and is the toilet comfortable ? How is the dining and is it priced well. I can honoustly say at this Holiday Inn I could hardly fault anything. the hotel is in immaculate condition and the things mentioned above all were well up to scratch. The dining is on the sports grill in the hotel, and there as well, service was excellent and the food great. I would highly recommend this hotel for a stay of any length.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r116359352-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116359352</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>One night stay at brand new HI property</t>
+  </si>
+  <si>
+    <t>Stayed here one night, not expecting much but was very pleasantly surprised. The property is brand new, the room is fairly large, new big flat screen, mini fridge and a microwave. The bathroom is very very nice, no tub but very large walk-in shower and the decor is really nice post-modern-type w/o being very 'mod' like on new 'hip-type' hotels. 
+The hotel is located on a strip mall with several restaurants in the vicinity. I did not get a chance to check out the gym or the restaurant though. They also have bikes for rent (I think $5 a day). It is close to Buffalo Bayou which is the main waterway of Harris/Fort Bend county and the city of Houston. 
+Keep in mind that this hotel is on the West Houston/Energy Corridor area. The area surrounding the property is not a busy shopping area like Westchase or Galleria area. It's more of a corporate-type surrounding, most Houston energy giants have offices around here. 
+There are a couple of interesting shopping areas of note: City Center by Sam Houston toll and I/10, and Houston's Chinatown on Bellaire near Beltway 8. The first is a modern open air shopping mall, so still lots of shopping options. The latter is a hodge-podge of ethnic shops and authentic restaurants (mostly Vietnamese and Chinese).
+Sidenote:
+I got this hotel via Priceline, and it only cost me $39 per night. Plus tax and all - the...Stayed here one night, not expecting much but was very pleasantly surprised. The property is brand new, the room is fairly large, new big flat screen, mini fridge and a microwave. The bathroom is very very nice, no tub but very large walk-in shower and the decor is really nice post-modern-type w/o being very 'mod' like on new 'hip-type' hotels. The hotel is located on a strip mall with several restaurants in the vicinity. I did not get a chance to check out the gym or the restaurant though. They also have bikes for rent (I think $5 a day). It is close to Buffalo Bayou which is the main waterway of Harris/Fort Bend county and the city of Houston. Keep in mind that this hotel is on the West Houston/Energy Corridor area. The area surrounding the property is not a busy shopping area like Westchase or Galleria area. It's more of a corporate-type surrounding, most Houston energy giants have offices around here. There are a couple of interesting shopping areas of note: City Center by Sam Houston toll and I/10, and Houston's Chinatown on Bellaire near Beltway 8. The first is a modern open air shopping mall, so still lots of shopping options. The latter is a hodge-podge of ethnic shops and authentic restaurants (mostly Vietnamese and Chinese).Sidenote:I got this hotel via Priceline, and it only cost me $39 per night. Plus tax and all - the total charge was less than $52. Can't complain with that price.Pros:Very nice property for a Holiday Inn, decent sized room, quiet, perfect for corporate travelers or travelers looking for a quiet property, good dining options nearbyCons: not for party peopleMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here one night, not expecting much but was very pleasantly surprised. The property is brand new, the room is fairly large, new big flat screen, mini fridge and a microwave. The bathroom is very very nice, no tub but very large walk-in shower and the decor is really nice post-modern-type w/o being very 'mod' like on new 'hip-type' hotels. 
+The hotel is located on a strip mall with several restaurants in the vicinity. I did not get a chance to check out the gym or the restaurant though. They also have bikes for rent (I think $5 a day). It is close to Buffalo Bayou which is the main waterway of Harris/Fort Bend county and the city of Houston. 
+Keep in mind that this hotel is on the West Houston/Energy Corridor area. The area surrounding the property is not a busy shopping area like Westchase or Galleria area. It's more of a corporate-type surrounding, most Houston energy giants have offices around here. 
+There are a couple of interesting shopping areas of note: City Center by Sam Houston toll and I/10, and Houston's Chinatown on Bellaire near Beltway 8. The first is a modern open air shopping mall, so still lots of shopping options. The latter is a hodge-podge of ethnic shops and authentic restaurants (mostly Vietnamese and Chinese).
+Sidenote:
+I got this hotel via Priceline, and it only cost me $39 per night. Plus tax and all - the...Stayed here one night, not expecting much but was very pleasantly surprised. The property is brand new, the room is fairly large, new big flat screen, mini fridge and a microwave. The bathroom is very very nice, no tub but very large walk-in shower and the decor is really nice post-modern-type w/o being very 'mod' like on new 'hip-type' hotels. The hotel is located on a strip mall with several restaurants in the vicinity. I did not get a chance to check out the gym or the restaurant though. They also have bikes for rent (I think $5 a day). It is close to Buffalo Bayou which is the main waterway of Harris/Fort Bend county and the city of Houston. Keep in mind that this hotel is on the West Houston/Energy Corridor area. The area surrounding the property is not a busy shopping area like Westchase or Galleria area. It's more of a corporate-type surrounding, most Houston energy giants have offices around here. There are a couple of interesting shopping areas of note: City Center by Sam Houston toll and I/10, and Houston's Chinatown on Bellaire near Beltway 8. The first is a modern open air shopping mall, so still lots of shopping options. The latter is a hodge-podge of ethnic shops and authentic restaurants (mostly Vietnamese and Chinese).Sidenote:I got this hotel via Priceline, and it only cost me $39 per night. Plus tax and all - the total charge was less than $52. Can't complain with that price.Pros:Very nice property for a Holiday Inn, decent sized room, quiet, perfect for corporate travelers or travelers looking for a quiet property, good dining options nearbyCons: not for party peopleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r115623512-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115623512</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>New clean hotel</t>
+  </si>
+  <si>
+    <t>Located about one mile south of the Katy Freeway, just south of Memorial on Eldridge parkway this is a new hotel with great weekend rates on priceline. Remember you are close to highway 6 so, you are 15+ miles west of downtown.  Safe upscale area.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r98561339-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98561339</t>
+  </si>
+  <si>
+    <t>03/01/2011</t>
+  </si>
+  <si>
+    <t>Very Nice with a Couple Minor Issues</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is a newer build and located in west Houston in a very nice area.  The area was very nice with abundant restaurant choices nearby. 
+The hotel was easy to find and there was parking available very close to the door.  The lobby area was big and attractive.  The check-in agent was a little unpolished but was quite friendly.  In front of a group of people in the lobby she loudly barked out my room number which i thought was the first thing they teach you in "front desk school".  Anyhow not a big deal.  
+I was placed up on the 5th floor.  The hallways were very nice and modern although there was a hint of what i believe was skunk smell in the hallways but not enough for it to be a big deal.    The room was nicely appointed and comfortable.  The bed was comfy with great linen and both soft and firm pillows were provided per Holiday Inn standards.  There was a nice LG flat screen tv provided and Dish Network with about 100 channels available.  
+The bathroom was nicely decorated as well.  The sink area was large with plenty of space for personal items.  There was no tub only a shower which is a setup that i personally like.   Another small dig was that the shower head was up so high and the water pressure so low that taking a shower was a bit of...This Holiday Inn is a newer build and located in west Houston in a very nice area.  The area was very nice with abundant restaurant choices nearby. The hotel was easy to find and there was parking available very close to the door.  The lobby area was big and attractive.  The check-in agent was a little unpolished but was quite friendly.  In front of a group of people in the lobby she loudly barked out my room number which i thought was the first thing they teach you in "front desk school".  Anyhow not a big deal.  I was placed up on the 5th floor.  The hallways were very nice and modern although there was a hint of what i believe was skunk smell in the hallways but not enough for it to be a big deal.    The room was nicely appointed and comfortable.  The bed was comfy with great linen and both soft and firm pillows were provided per Holiday Inn standards.  There was a nice LG flat screen tv provided and Dish Network with about 100 channels available.  The bathroom was nicely decorated as well.  The sink area was large with plenty of space for personal items.  There was no tub only a shower which is a setup that i personally like.   Another small dig was that the shower head was up so high and the water pressure so low that taking a shower was a bit of a chore.  The only other minor issue i had with this Holiday Inn was with the on-site Sporting News restaurant.   The food was probably the worst food i've experienced in a restaurant in the last 5 years.  The panini sandwich i ordered wasn't even pressed on a panini maker just toasted in a toaster.  The chicke on the sandwich was dry and bland.  I went with the fresh fruit instead of french fries and it was old, mushy and just plain nasty.  The free high speed internet was just that, fast and free. All in all i highly recommend this Holiday Inn but i advise you to stay clear of the onsite restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is a newer build and located in west Houston in a very nice area.  The area was very nice with abundant restaurant choices nearby. 
+The hotel was easy to find and there was parking available very close to the door.  The lobby area was big and attractive.  The check-in agent was a little unpolished but was quite friendly.  In front of a group of people in the lobby she loudly barked out my room number which i thought was the first thing they teach you in "front desk school".  Anyhow not a big deal.  
+I was placed up on the 5th floor.  The hallways were very nice and modern although there was a hint of what i believe was skunk smell in the hallways but not enough for it to be a big deal.    The room was nicely appointed and comfortable.  The bed was comfy with great linen and both soft and firm pillows were provided per Holiday Inn standards.  There was a nice LG flat screen tv provided and Dish Network with about 100 channels available.  
+The bathroom was nicely decorated as well.  The sink area was large with plenty of space for personal items.  There was no tub only a shower which is a setup that i personally like.   Another small dig was that the shower head was up so high and the water pressure so low that taking a shower was a bit of...This Holiday Inn is a newer build and located in west Houston in a very nice area.  The area was very nice with abundant restaurant choices nearby. The hotel was easy to find and there was parking available very close to the door.  The lobby area was big and attractive.  The check-in agent was a little unpolished but was quite friendly.  In front of a group of people in the lobby she loudly barked out my room number which i thought was the first thing they teach you in "front desk school".  Anyhow not a big deal.  I was placed up on the 5th floor.  The hallways were very nice and modern although there was a hint of what i believe was skunk smell in the hallways but not enough for it to be a big deal.    The room was nicely appointed and comfortable.  The bed was comfy with great linen and both soft and firm pillows were provided per Holiday Inn standards.  There was a nice LG flat screen tv provided and Dish Network with about 100 channels available.  The bathroom was nicely decorated as well.  The sink area was large with plenty of space for personal items.  There was no tub only a shower which is a setup that i personally like.   Another small dig was that the shower head was up so high and the water pressure so low that taking a shower was a bit of a chore.  The only other minor issue i had with this Holiday Inn was with the on-site Sporting News restaurant.   The food was probably the worst food i've experienced in a restaurant in the last 5 years.  The panini sandwich i ordered wasn't even pressed on a panini maker just toasted in a toaster.  The chicke on the sandwich was dry and bland.  I went with the fresh fruit instead of french fries and it was old, mushy and just plain nasty.  The free high speed internet was just that, fast and free. All in all i highly recommend this Holiday Inn but i advise you to stay clear of the onsite restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r94099551-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94099551</t>
+  </si>
+  <si>
+    <t>01/22/2011</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>My husband and I were excited to stay here, as this was supposed to be a nice, new hotel. We walked into our (non smoking) room, and the first thing that hit me was the stench. It smelled stale and mildew-y, like an old, cheap motel, definitely not a non-smoking one. Then, we found hair in both the bed and sink. Gross. THEN, as if that weren't bad enough, the next morning we spent 15 minutes trying to check out. The guy didn't know how to do so, so he had to call another employee at home. He ended up charging us twice. Would not recommend this place, at least until hey get their act together and train their staff to do their jobs (and clean!!!) better. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were excited to stay here, as this was supposed to be a nice, new hotel. We walked into our (non smoking) room, and the first thing that hit me was the stench. It smelled stale and mildew-y, like an old, cheap motel, definitely not a non-smoking one. Then, we found hair in both the bed and sink. Gross. THEN, as if that weren't bad enough, the next morning we spent 15 minutes trying to check out. The guy didn't know how to do so, so he had to call another employee at home. He ended up charging us twice. Would not recommend this place, at least until hey get their act together and train their staff to do their jobs (and clean!!!) better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r71558401-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71558401</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>Excelent service and quality</t>
+  </si>
+  <si>
+    <t>I spend only 1 nigth there to rest from a long driving trip, I arrive almost 2 am, Jeanine, the girl in the front desk receive me with a friendly and fresh smile, no matter the late hour, she gave me a great reception, very fast check-in, excelent room (brand new), breakfast at the sports restaurant was great, 100% american, splendid and with the special kid´s eats free, I save 50%. My daughters enjoy the indoor pool, that gave me more time to rest in the morning.  My stay there was so great that I decide to make arrangements in the trip schedule in order to stay again in the same hotel when I return from my trip.   The hotel is close to the I-.10, that was very convenient..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>energycorridor, Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 21, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2010</t>
+  </si>
+  <si>
+    <t>I spend only 1 nigth there to rest from a long driving trip, I arrive almost 2 am, Jeanine, the girl in the front desk receive me with a friendly and fresh smile, no matter the late hour, she gave me a great reception, very fast check-in, excelent room (brand new), breakfast at the sports restaurant was great, 100% american, splendid and with the special kid´s eats free, I save 50%. My daughters enjoy the indoor pool, that gave me more time to rest in the morning.  My stay there was so great that I decide to make arrangements in the trip schedule in order to stay again in the same hotel when I return from my trip.   The hotel is close to the I-.10, that was very convenient..More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2168,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2200,4578 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>287</v>
+      </c>
+      <c r="X30" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" t="s">
+        <v>292</v>
+      </c>
+      <c r="K31" t="s">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s">
+        <v>294</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>304</v>
+      </c>
+      <c r="X32" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>329</v>
+      </c>
+      <c r="X35" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>337</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>344</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>269</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>353</v>
+      </c>
+      <c r="X38" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J39" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L39" t="s">
+        <v>360</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>367</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>373</v>
+      </c>
+      <c r="X41" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>381</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>382</v>
+      </c>
+      <c r="X42" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>381</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s">
+        <v>395</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>396</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>403</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>409</v>
+      </c>
+      <c r="X46" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>417</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>430</v>
+      </c>
+      <c r="X49" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s">
+        <v>437</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>438</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
+        <v>472</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>474</v>
+      </c>
+      <c r="J56" t="s">
+        <v>475</v>
+      </c>
+      <c r="K56" t="s">
+        <v>476</v>
+      </c>
+      <c r="L56" t="s">
+        <v>477</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>478</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>118</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>403</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>493</v>
+      </c>
+      <c r="K59" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>496</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>499</v>
+      </c>
+      <c r="J60" t="s">
+        <v>500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>501</v>
+      </c>
+      <c r="L60" t="s">
+        <v>502</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>503</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>504</v>
+      </c>
+      <c r="X60" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>512</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>513</v>
+      </c>
+      <c r="X61" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>521</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>523</v>
+      </c>
+      <c r="J63" t="s">
+        <v>524</v>
+      </c>
+      <c r="K63" t="s">
+        <v>525</v>
+      </c>
+      <c r="L63" t="s">
+        <v>526</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>528</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>529</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>533</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>533</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>533</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>548</v>
+      </c>
+      <c r="J67" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>550</v>
+      </c>
+      <c r="L67" t="s">
+        <v>551</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>552</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>554</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
+      </c>
+      <c r="K68" t="s">
+        <v>556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>557</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>558</v>
+      </c>
+      <c r="O68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>566</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>567</v>
+      </c>
+      <c r="J70" t="s">
+        <v>568</v>
+      </c>
+      <c r="K70" t="s">
+        <v>569</v>
+      </c>
+      <c r="L70" t="s">
+        <v>570</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>571</v>
+      </c>
+      <c r="O70" t="s">
+        <v>118</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>572</v>
+      </c>
+      <c r="X70" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_352.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_352.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="894">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r583695456-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1575212</t>
+  </si>
+  <si>
+    <t>583695456</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Lots of problems with water system</t>
+  </si>
+  <si>
+    <t>I have stayed here several times since my office is across the street. It is usually pretty mediocre but tolerable. The beds aren't particularly comfortable, the walls are thin so you hear conversations, they don't replace coffee pods after you use them, etc. But this time was especially bad since the hot water didn't work all week and then they shut off the water system (but continued to have guests check in.)The restaurant &amp; bar are nice enough, and the staff try to help, but I get the impression that they don't like the owner. The rooms are also clean and superficially look nice. But in the future I would definitely not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Mari V, General Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here several times since my office is across the street. It is usually pretty mediocre but tolerable. The beds aren't particularly comfortable, the walls are thin so you hear conversations, they don't replace coffee pods after you use them, etc. But this time was especially bad since the hot water didn't work all week and then they shut off the water system (but continued to have guests check in.)The restaurant &amp; bar are nice enough, and the staff try to help, but I get the impression that they don't like the owner. The rooms are also clean and superficially look nice. But in the future I would definitely not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r554307443-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554307443</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best-highly recommended </t>
+  </si>
+  <si>
+    <t>Me, my granny and friend stayed here for my bffs wedding. We visited after the flooding in Texas and this was one of the hotels near the wedding festivities that was left untouched. Friendly, knowledgeable staff. After driving for 11 hours from AL we were super exhausted and arrived before the designated check in time. I think the staff could tell I was delirious because she said it was fine for us to check in early lol We were so grateful, otherwise we'd have to sleep in our SUV. The hotel was super clean - I saw staff cleaning daily. The room was spotless and smelled good. The bed was comfortable and had nice accents/updates. The A/C was awesome; it blew super cold air (which I like). It was super quiet too. The server/kitchen staff in the restaurant was amazing! They took care of us! I highly recommend this hotel. We stayed on the highest floor with a view of the adjacent neighborhood. I will stay here again if I am in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Me, my granny and friend stayed here for my bffs wedding. We visited after the flooding in Texas and this was one of the hotels near the wedding festivities that was left untouched. Friendly, knowledgeable staff. After driving for 11 hours from AL we were super exhausted and arrived before the designated check in time. I think the staff could tell I was delirious because she said it was fine for us to check in early lol We were so grateful, otherwise we'd have to sleep in our SUV. The hotel was super clean - I saw staff cleaning daily. The room was spotless and smelled good. The bed was comfortable and had nice accents/updates. The A/C was awesome; it blew super cold air (which I like). It was super quiet too. The server/kitchen staff in the restaurant was amazing! They took care of us! I highly recommend this hotel. We stayed on the highest floor with a view of the adjacent neighborhood. I will stay here again if I am in the area. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r564028516-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1575212</t>
-  </si>
-  <si>
     <t>564028516</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r556890918-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -222,6 +273,39 @@
     <t xml:space="preserve">Convenient hotel with attention for quality. Everything working properly and well maintained. The breakfast buffet has limited choices (they also have a menu) but what was offered was freshly cooked. Room was clean with good quality bed. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r553022565-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553022565</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to just relax and not necessarily do much.  The Hotel was very clean and very attentive personal, from the moment I arrived they greeted me good. The room was very nice and comfortable. I asked for extra coffee and they gave me and later sent me some more to the room. I was able to relax. I will definitely recommend it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r527939293-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527939293</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>One of the better HIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even after the flooding this place was left untouched. This place was very nice and modern. Restaurant was good for breakfast. Staff was very friendly. Room were clean and modern. Room had fridge, coffee maker and microwave. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r493151702-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -276,6 +360,45 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r484954575-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484954575</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and quiet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed two nights while helping my son move. Loved how clean and well-kept the hotel is. Modern decor. Best part was it was quiet! No loads of kids running around slamming doors at night etc. many local restaurants nearby. Will stay there again when in the area </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r481404329-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481404329</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>My family visited and stayed here. Very nice, busy breakfast. Diane is a roadrunner who can handle any crowd. She's a doll with a passionate heart!! We stayed for 3 days and she's very familiar with her guests..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>My family visited and stayed here. Very nice, busy breakfast. Diane is a roadrunner who can handle any crowd. She's a doll with a passionate heart!! We stayed for 3 days and she's very familiar with her guests..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r477282359-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -354,6 +477,60 @@
     <t>While visiting the Houston area this week I stayed at this hotel due to its location - far enough away from the noisy Katy Freeway (about 1 1/2 miles) in a nice quiet neighborhood.  I stayed in a king executive room.  My room was clean and the furnishings were in very good condition.  My bed was comfortable.  The Direct TV service provided many selections to view.  The flat panel TV was a good size.  The air conditioner was quiet.  The bathroom was a nice size that included a walk-in shower.  The vanity sink was unique - it was a bright green base with a tempered glass overlay.  The front desk staff were friendly.  The restaurant was very good as well - see separate review.  This was a good place to stay and I would definitely stay here again.  My only issue was that the room charge for the dinner that I enjoyed during my last evening was not included in the bill that was delivered under my door the following morning.  A quick call to the front desk resolved this.  Apparently the documents were run/printed before the evening's restaurant charges had been posted.  The manager's reception on Tuesday evening for IHG members was an unexpected surprise that included assorted wines, bottled beers, and a raffle of 10,000 IHG points.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r462984994-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462984994</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Clean and modern, but bad service</t>
+  </si>
+  <si>
+    <t>Appears newly renovated and in a good location but man the service.  From front desk to maids they seemed to be lacking in knowledge about how to treat guests.  Examples:No hot water for 2 days and lack of effort to correct thisMissed billing for second night.  Had to catch this and correct it.No basic knowledge about area restaurants, etc.Poor room cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Appears newly renovated and in a good location but man the service.  From front desk to maids they seemed to be lacking in knowledge about how to treat guests.  Examples:No hot water for 2 days and lack of effort to correct thisMissed billing for second night.  Had to catch this and correct it.No basic knowledge about area restaurants, etc.Poor room cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r440418926-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440418926</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Great staff and rooms comfortable</t>
+  </si>
+  <si>
+    <t>I checked in late 10:30 pm and I was wanting a quite, clean safe place to rest. The staff in the evening greeted me with a smile and no problems. For business or family it''s a great hotel.  or The restaurant was clean and breakfast delicious breakfast in the morning. Parking is free and plenty of it even though I arrive late I had no problem finding any. The area has shopping and great restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>I checked in late 10:30 pm and I was wanting a quite, clean safe place to rest. The staff in the evening greeted me with a smile and no problems. For business or family it''s a great hotel.  or The restaurant was clean and breakfast delicious breakfast in the morning. Parking is free and plenty of it even though I arrive late I had no problem finding any. The area has shopping and great restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r440214930-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,18 +546,6 @@
     <t>The room was nice and clean with free wifi. We opted for the rate with the breakfast and it was well worth it. If you get this rate, they will give you a voucher to use for a breakfast in their restaurant. It was the day after Thanksgiving and the restaurant was not very busy. Our server was the restaurant manager, Diane, because she had given the regular server the day off. She was so nice and it was a pleasure having her as our server. The breakfasts for us and our son were very tasty and well worth the slightly higher room rate.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Ronald G, Guest Services Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 28, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 28, 2016</t>
-  </si>
-  <si>
     <t>The room was nice and clean with free wifi. We opted for the rate with the breakfast and it was well worth it. If you get this rate, they will give you a voucher to use for a breakfast in their restaurant. It was the day after Thanksgiving and the restaurant was not very busy. Our server was the restaurant manager, Diane, because she had given the regular server the day off. She was so nice and it was a pleasure having her as our server. The breakfasts for us and our son were very tasty and well worth the slightly higher room rate.More</t>
   </si>
   <si>
@@ -432,6 +597,57 @@
     <t>The Holiday inn on Elridge pkway is the best hotel I have ever been in. The staff if very friendly, I was treated like family. And questions, concerns, details I needed they answered for me with no problems.  The rooms was clean, cozy and just overall wonderful.  I experienced the staff of Carmen, Darrion, Diane, and Jorge . These people are phenomenal. Mrs. Diane runs the grill-- she was the greatest server i have experienced ever! The food in the grill was simply amazing, it was like eating at a 5 star restaurant. Darrion and Carmen worked the counter, they always made sure i was ok, They would get me started with my day. Jorge was the shuttle driver, very friendly, polite man. The staff was just a wonderful smiling staff. I would recommend this hotel to anyone and definitely will be returning! thank you so much for this world class experience and bring me joy!!!! This hotel is AMAZING!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r436002756-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436002756</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Didnt try the grill, but they have happy hr 4 to 10, indoor pool, friendly staff, clean rooms, quiet hotel, good parking lot with enough light and good area from where i did business at, overall nothing to complain aboutMoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Didnt try the grill, but they have happy hr 4 to 10, indoor pool, friendly staff, clean rooms, quiet hotel, good parking lot with enough light and good area from where i did business at, overall nothing to complain aboutMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r430172520-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430172520</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay - especially if you like scotch!</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of times before.  Once before, I was the IHG member of the day - it was a nice touch which I have suggested to several other IHG properties I frequent.  My room met my preferences of to floor away from elevator which was much appreciated.  The staff at the desk were friendly.  I ate one dinner in the restaurant and enjoyed my meal, but the highlight was when I overheard someone talking about your scotch.  For a small bar, you have a decent selection at good prices.  I really enjoy Macallan 18 and I cant get it back home in Canada.  Your price was very fair and I thoroughly enjoyed my dram.  The only negative was the table service was slow.  I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here a couple of times before.  Once before, I was the IHG member of the day - it was a nice touch which I have suggested to several other IHG properties I frequent.  My room met my preferences of to floor away from elevator which was much appreciated.  The staff at the desk were friendly.  I ate one dinner in the restaurant and enjoyed my meal, but the highlight was when I overheard someone talking about your scotch.  For a small bar, you have a decent selection at good prices.  I really enjoy Macallan 18 and I cant get it back home in Canada.  Your price was very fair and I thoroughly enjoyed my dram.  The only negative was the table service was slow.  I will be back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r429887097-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -447,12 +663,6 @@
     <t>It was a last minute trip that my friends planned and they drove from Alabama to Houston. They would arrive at 8am in the morning and need a place to sleep. I called around to see if they would let us check that early.. will ofcrouse other hotels was either charge me extra for early check in or won't let me do it at all! but when I called Holiday Inn here Victor at the front desk was so kind! he assign me a room with to charges if I came in at 8am and gave me the most pleasant service.  The room was great and the employees was friendly. I would stay here again and they gave me a very good great impression of holliday inn since its my first time staying.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 21, 2016</t>
   </si>
   <si>
@@ -516,6 +726,51 @@
     <t>This Hotel is for business trip only. AC in room is noisy, breakfast is really simple but pricy.Rooms are standard and clean, but better you speak spanish with housekeeping ladies. Quiet area around and it's close to all oil companies offices.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r385837613-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385837613</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Great location with an exceptional staff</t>
+  </si>
+  <si>
+    <t>Holiday Inn hotels are not all the same.  You rely on the brand and you can get burned.  Not the case with this one.  Clean room, quiet and a staff that's overly friendly (if that's even possible) The demographic of this hotel seemed to be over 40 and that helps.  One caution is breakfast: if all you want is a muffin and some coffee in the morning, you're better off hitting the road and stopping at a convenience mart.  It's a 20 dollar additional price tag for the hot breakfast whether you grab one thing, or everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn hotels are not all the same.  You rely on the brand and you can get burned.  Not the case with this one.  Clean room, quiet and a staff that's overly friendly (if that's even possible) The demographic of this hotel seemed to be over 40 and that helps.  One caution is breakfast: if all you want is a muffin and some coffee in the morning, you're better off hitting the road and stopping at a convenience mart.  It's a 20 dollar additional price tag for the hot breakfast whether you grab one thing, or everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r385013751-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385013751</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Ok  2 Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The hotel is in a nice area. Our room appeared clean until we got to the bed.  The fitted sheet was stained...yellowish and hairs in the bed.  I called and told the front desk.  When we got back, someone had just left a bag of new sheets on the floor for us to change the bed.  I'm not quite sure why housekeeping didn't change them. But...ok. The hotel had an indoor pool which was convenient, but the water was extremely cold.  There was a "free breakfast" voucher included with the room.  The hotel restaurant that hosted the free breakfast was a disappointment.  The "free breakfast" was a "buffet" with a cereal/fruit bar and a hot station with like 4 items.  And those 4 items were constantly empty.  We had to wait for lengthy time frames for a refill of the hot items.  We asked if we could order a menu item (and pay for it of course) and they said no.  That didn't make sense to me.  But again, ok. The price was decent, room was decent...not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The hotel is in a nice area. Our room appeared clean until we got to the bed.  The fitted sheet was stained...yellowish and hairs in the bed.  I called and told the front desk.  When we got back, someone had just left a bag of new sheets on the floor for us to change the bed.  I'm not quite sure why housekeeping didn't change them. But...ok. The hotel had an indoor pool which was convenient, but the water was extremely cold.  There was a "free breakfast" voucher included with the room.  The hotel restaurant that hosted the free breakfast was a disappointment.  The "free breakfast" was a "buffet" with a cereal/fruit bar and a hot station with like 4 items.  And those 4 items were constantly empty.  We had to wait for lengthy time frames for a refill of the hot items.  We asked if we could order a menu item (and pay for it of course) and they said no.  That didn't make sense to me.  But again, ok. The price was decent, room was decent...not the best.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r380535663-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,9 +810,6 @@
     <t>I stayed at the hotel for the last 2 weeks of April/16 and overall I had a good experience. I got a room right next to the elevator on the 3rd floor and I could not hear a single noise coming from the elevator. I could, though, hear some noise from my neighbor's TV... Also close to the elevator there's an ice machine and in the room a microwave, a small refrigerator and a coffee machine with some supplies (coffee, tea and sugar). The wifi was not good and would keep disconnecting from time to time. For business calls I could use the cable internet and it was good enough. Breakfast was too expensive for what it was, so I ended up having breakfast somewhere else. There's plenty of parking space and some good restaurants around. I chose this hotel because it is from the IHG group and very close to the place I was working during those 2 weeks. Sometimes there was nobody at the front desk, so you need to wait some minutes in case you need something. I did not use the pool and the gym, but the hotel has those as well.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 17, 2016</t>
   </si>
   <si>
@@ -594,6 +846,54 @@
     <t>Rooms are clean and comfortable, A/C works great. Staff have always been friendly. Restaurant is ok. My biggest thing is the internet is really poor. I have been in a number of different rooms and have never had even a decent connection. First issue is the wifi drops in and out. The next issue is that I was unable to go to a number of sites (even though I was able to go to those sites on my phone which was not connected to their wifi. Then if you are lucky enough to get to a site it is soooooooo slooooooow! I am sorry it is 2016 in one of the largest cities in the country, the wifi should be at least decent!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r362569722-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362569722</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>What's that smell</t>
+  </si>
+  <si>
+    <t>Came to the hotel because of NCAA weekend.  Hotel staff are nice and friendly but someone is stashing their stash of marijuana in the elevators.  You can smell it in both elevators each and every day.  Another guest got on with me and said the same thing.  Not good.  The rooms are nice, clean and comfortable.  There are nearby places to eat which was a plus.  Only other downside beside the weedavador is the waiter Ceasar does not know how to promote the food in the independent restaurant.  A burger was just a any other burger to him.  He did not know how to make drinks and he could not suggest anything good on the menu.  Would think twice before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Came to the hotel because of NCAA weekend.  Hotel staff are nice and friendly but someone is stashing their stash of marijuana in the elevators.  You can smell it in both elevators each and every day.  Another guest got on with me and said the same thing.  Not good.  The rooms are nice, clean and comfortable.  There are nearby places to eat which was a plus.  Only other downside beside the weedavador is the waiter Ceasar does not know how to promote the food in the independent restaurant.  A burger was just a any other burger to him.  He did not know how to make drinks and he could not suggest anything good on the menu.  Would think twice before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r358438292-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358438292</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Work was pleasure</t>
+  </si>
+  <si>
+    <t>Nice, standard Holiday Inn, very friendly staff, clean, smelled fresh, room was nice and the work out facility was acceptable. Pool was nice. Food was very good. The lady running the complimentary breakfast area was very helpful. I will go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Nice, standard Holiday Inn, very friendly staff, clean, smelled fresh, room was nice and the work out facility was acceptable. Pool was nice. Food was very good. The lady running the complimentary breakfast area was very helpful. I will go back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r356498597-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -672,6 +972,60 @@
     <t>Enjoyed my stay here.  Nothing that makes me say I'm in love with it but the housekeeping staff really went above and beyond! It was very clean and they were Super sweet! I would come back for them. Thank you Marisol. The location is great too..easy in and out!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r337556698-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337556698</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Bad customer service!!</t>
+  </si>
+  <si>
+    <t>I discovered a charge on my card after  we already left the hotel. I contacted the hotel  asking   the customer service   to investigate about the charge. I am still waiting for their  response.I am an IHG member, (platinum elite). Usually holiday inn hotels provide  good customer service, but this one obviously failed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Customer Service Representative  at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2016</t>
+  </si>
+  <si>
+    <t>I discovered a charge on my card after  we already left the hotel. I contacted the hotel  asking   the customer service   to investigate about the charge. I am still waiting for their  response.I am an IHG member, (platinum elite). Usually holiday inn hotels provide  good customer service, but this one obviously failed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r321276429-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321276429</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, very friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>Stayed here with the family of 5. Unfortunately we had not realised there were no connecting rooms until we arrived. However the front desk manager gave us all the options available and eventually we went for 2 unconnected rooms but next door to each other on the executive floor.Really nice sports bar connected to it which doubles as the breakfast room in the morning. Breakfast was buffet during the week but only a la carte at the weekend. During the week it did get very busy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here with the family of 5. Unfortunately we had not realised there were no connecting rooms until we arrived. However the front desk manager gave us all the options available and eventually we went for 2 unconnected rooms but next door to each other on the executive floor.Really nice sports bar connected to it which doubles as the breakfast room in the morning. Breakfast was buffet during the week but only a la carte at the weekend. During the week it did get very busy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r303020048-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -753,6 +1107,60 @@
     <t>I am a regular user of this hotel due to its proximity to our USA office however as far as hotels go this one has a few challenges, but to be fair if you are using it for business and you are only looking for a good night sleep, a bar, breakfast,  a bit of gym then this place will do the trick and do it well.  The hotel is clean and well maintained, front desk staff were very helpful and the shuttle service is useful....so there it is.  I will be back because it does what I want when I am visiting this part of the world.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r269443653-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269443653</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent all the way around </t>
+  </si>
+  <si>
+    <t>This is our second visit as a group to this hotel, and once again I'm astonished by the service. The Sales Manager, David Robison is fantastic.  His staff was very professional and accommodating. The hotel is immaculate,  and despite other negative reviews, I found the food delicious. There are restaurants nearby though,  so don't let that stop you. What most stood out to me was when I heard of their willingness to give back to the community. Once a month, their staff foes out and feeds the homeless. They have done Breast Cancer Awareness events, collect backpacks for needy children, and many many others. I am in awe by their compassion and willingness to serve others. Fantastic hotel. Fantastic staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded May 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2015</t>
+  </si>
+  <si>
+    <t>This is our second visit as a group to this hotel, and once again I'm astonished by the service. The Sales Manager, David Robison is fantastic.  His staff was very professional and accommodating. The hotel is immaculate,  and despite other negative reviews, I found the food delicious. There are restaurants nearby though,  so don't let that stop you. What most stood out to me was when I heard of their willingness to give back to the community. Once a month, their staff foes out and feeds the homeless. They have done Breast Cancer Awareness events, collect backpacks for needy children, and many many others. I am in awe by their compassion and willingness to serve others. Fantastic hotel. Fantastic staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r261401103-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261401103</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Loved the rooms, hated the food</t>
+  </si>
+  <si>
+    <t>If you like room service then this hotel is a two stars!!!!Breakfast was (From a Londoner) unacceptable. It is located in the hotel bar, with a tiny buffet, watered down juices... not good.The hotel hover is very clear, nicely located and the rooms were very good.I had 3 types of pillows (Soft, medium and hard) and the mattress was amazing.Plenty of restaurants in the vicinity, but all average ones.Then again if you are in Houston, you must have a car. If you do then head to Taste of Texas for Steaks, Papacitos for Tex-Mex or Fadi's for Libanese food.Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>If you like room service then this hotel is a two stars!!!!Breakfast was (From a Londoner) unacceptable. It is located in the hotel bar, with a tiny buffet, watered down juices... not good.The hotel hover is very clear, nicely located and the rooms were very good.I had 3 types of pillows (Soft, medium and hard) and the mattress was amazing.Plenty of restaurants in the vicinity, but all average ones.Then again if you are in Houston, you must have a car. If you do then head to Taste of Texas for Steaks, Papacitos for Tex-Mex or Fadi's for Libanese food.Recommended.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r259679493-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -837,6 +1245,57 @@
     <t>My fiance and I had an opportunity to stay at this hotel and it was more than we expected.  We had moved away from Houston but drove by this hotel almost every day since opening.   We were very surprised when we arrived as it is very nice.   Price reasonable.   Front desk staff very attentive.   Overall a very nice Valentine's Day weekend!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r254529277-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254529277</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Good price</t>
+  </si>
+  <si>
+    <t>I stayed this past valentines weekend and it was overall good. I originally had the executive suite but manager was nice enough to let me dand my bf downgrade rooms to get the stand up shower. The water was hot and the water pressure was great. I saw a review that they didn't like in order to turn on the shower you would get wet but isn't that the reason for taking a shower? Lol! My only negatives were the paper thin walls (I heard the lady next doors conversation with her kids) and the housekeeping woke us up at 9am when check out is at 11 trying to come in the room. I would stay again hopefully I won't get placed next to people with kids again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>I stayed this past valentines weekend and it was overall good. I originally had the executive suite but manager was nice enough to let me dand my bf downgrade rooms to get the stand up shower. The water was hot and the water pressure was great. I saw a review that they didn't like in order to turn on the shower you would get wet but isn't that the reason for taking a shower? Lol! My only negatives were the paper thin walls (I heard the lady next doors conversation with her kids) and the housekeeping woke us up at 9am when check out is at 11 trying to come in the room. I would stay again hopefully I won't get placed next to people with kids again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r252008561-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252008561</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>lousy</t>
+  </si>
+  <si>
+    <t>Where to begin?Thinnest walls I have ever experienced. Not only could I hear the guy next to me snoring (as if he was next to me) but I got to hear him and his "lady friend" "exercising" two nights in a row at 3am! Water pressure in the shower very weak. AND mid week they notified us they would be turning the water off to the ENTIRE hotel from 8-5, but we could use PORT-A-POTTIES OUTSIDE if necessary!!! I think I should have been made aware of that when I checked in. I definitely would have gone elsewhere.Only one sports bar to eat at- and that was closed the day we had no water. Only decaf coffee in the lobby in the mornings. WHAT??Absolutely slowest internet I have ever used. The business center computer was no help either- it literally took me 23 minutes to print my boarding pass- On a side note, what is it with people slamming hotel room doors all hours of the night and day?  PEOPLE, you know you can allow the door to close gently, right? Try to be more considerate.The only plus was the staff- every employee was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Where to begin?Thinnest walls I have ever experienced. Not only could I hear the guy next to me snoring (as if he was next to me) but I got to hear him and his "lady friend" "exercising" two nights in a row at 3am! Water pressure in the shower very weak. AND mid week they notified us they would be turning the water off to the ENTIRE hotel from 8-5, but we could use PORT-A-POTTIES OUTSIDE if necessary!!! I think I should have been made aware of that when I checked in. I definitely would have gone elsewhere.Only one sports bar to eat at- and that was closed the day we had no water. Only decaf coffee in the lobby in the mornings. WHAT??Absolutely slowest internet I have ever used. The business center computer was no help either- it literally took me 23 minutes to print my boarding pass- On a side note, what is it with people slamming hotel room doors all hours of the night and day?  PEOPLE, you know you can allow the door to close gently, right? Try to be more considerate.The only plus was the staff- every employee was wonderful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r242519773-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1371,60 @@
     <t>Houston was very cold but the room heater was not effective.  I was shivering all the time.  They didn't deliver laundry to my room after charging a huge amount.  They said they had no people. . I asked for Taxi to Hobby airport.  They said it will cost $85 but the driver charged 95, said he didn't $5 change.  Didn't help in taking the bag or which troubled my back.  Overall avoidable. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r234357018-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234357018</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is a great Holiday Inn hotel.  Had to stay for 3 weeks for work and they gave me a quiet end room.  It was spacious, everything was clean, bed and pillows were super comfy.  I got to know the staff and they were all so pleasant and helpful.  Only issue I had was my swipe card not working so I had to visit the front desk 3 times but they sent maintenance and it was resolved quickly.  The food at the Sporting News Grill on the main floor was really tasty, good breakfast and dinner entrees, much better than most restaurants in the area.  And they provide shuttle service to locations nearby, I used this service several times.  The hotel is in the perfect location if you are working in the Energy corridor but it is a fair distance from downtown and other hot spots in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>This is a great Holiday Inn hotel.  Had to stay for 3 weeks for work and they gave me a quiet end room.  It was spacious, everything was clean, bed and pillows were super comfy.  I got to know the staff and they were all so pleasant and helpful.  Only issue I had was my swipe card not working so I had to visit the front desk 3 times but they sent maintenance and it was resolved quickly.  The food at the Sporting News Grill on the main floor was really tasty, good breakfast and dinner entrees, much better than most restaurants in the area.  And they provide shuttle service to locations nearby, I used this service several times.  The hotel is in the perfect location if you are working in the Energy corridor but it is a fair distance from downtown and other hot spots in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r233976188-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233976188</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Second visit and even better</t>
+  </si>
+  <si>
+    <t>Second stay here after a two year break.  Was very pleased to see that service was even better than in 2012.  Staff willing to go to great lengths to help.  This was especially the case with the use of the hotel shuttle service where for free the hotel vehicle will take you to offices and shops within a radius of a few miles.  I visited two offices and did a shopping expedition. Staff did everything with a smile and no fuss - perfect service.  well done Holiday Inn for employing such great staff !Oh yeah and the housekeeping was also very good in the huge cool room with great wifi.  TV channels marginally better than the awful ones usually available in US hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Second stay here after a two year break.  Was very pleased to see that service was even better than in 2012.  Staff willing to go to great lengths to help.  This was especially the case with the use of the hotel shuttle service where for free the hotel vehicle will take you to offices and shops within a radius of a few miles.  I visited two offices and did a shopping expedition. Staff did everything with a smile and no fuss - perfect service.  well done Holiday Inn for employing such great staff !Oh yeah and the housekeeping was also very good in the huge cool room with great wifi.  TV channels marginally better than the awful ones usually available in US hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r227918683-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1498,57 @@
   </si>
   <si>
     <t>I stay here for business all of the time and it has everything I need.  It is close to my client, close to Terry Hershey Park for a nice run, it is minutes away from CityCentre, and if you need to go towards downtown in the evenings... you are basically going against traffic.  The hotel still has a nice new feel and the staff is the best.  They make it feel like my home away from home.  The rooms are big and have a microwave and fridge... if you need them.The hotel restaurant is also excellent.  Great food and they are able to arrange happy hours for me in very short notice.  The bar is awesome as well.  They have some of the best beer selections in Houston... some are impossible to find around town, but you can find them here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r218850268-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218850268</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Adequate hotel</t>
+  </si>
+  <si>
+    <t>This is all you would expect from this type of hotel with clean spacious rooms, a (very) small gym and swimming pool.  It is an enjoyable place to stay on business as it is located near to many offices etc.  Service at breakfast time is what lets this hotel down.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>This is all you would expect from this type of hotel with clean spacious rooms, a (very) small gym and swimming pool.  It is an enjoyable place to stay on business as it is located near to many offices etc.  Service at breakfast time is what lets this hotel down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r214479269-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214479269</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>While the staff incredibly friendly, I had the following problems:Day 1: (1) There is was no shower curtain in the bathroom. Staff had to come in and place one in the room. (2) There was no hot water for two days. After the second day, I told them. It was fixed for a day and went cold again the final evening of my stay.Day 2&amp;3: My breakfast order was not picked up from my door. Did not realize until the following morning. When I called to place the order, they rushed it and brought half portions (1 egg in stead of two for each serving, 1 slice of bacon, no toast)! Gave us credit for next days breakfast but the damage was already done.Day 3: Our towels were not replaced. When I called it in they brought a pile of bath mats instead of towels.I pulled out an extra hotel blanket from the closet. Every day that the cleaning staff came in to clean our room, they would make the bed and leave the extra blanket balled up on the bed in the same place! Every day!!!This was a clean hotel with friendly staff, but I don't think I've every had such an appallingly deficient stay in a hotel, especially for the price that I paid. I'll be staying at the Embassy Suites from now on...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>While the staff incredibly friendly, I had the following problems:Day 1: (1) There is was no shower curtain in the bathroom. Staff had to come in and place one in the room. (2) There was no hot water for two days. After the second day, I told them. It was fixed for a day and went cold again the final evening of my stay.Day 2&amp;3: My breakfast order was not picked up from my door. Did not realize until the following morning. When I called to place the order, they rushed it and brought half portions (1 egg in stead of two for each serving, 1 slice of bacon, no toast)! Gave us credit for next days breakfast but the damage was already done.Day 3: Our towels were not replaced. When I called it in they brought a pile of bath mats instead of towels.I pulled out an extra hotel blanket from the closet. Every day that the cleaning staff came in to clean our room, they would make the bed and leave the extra blanket balled up on the bed in the same place! Every day!!!This was a clean hotel with friendly staff, but I don't think I've every had such an appallingly deficient stay in a hotel, especially for the price that I paid. I'll be staying at the Embassy Suites from now on...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r208008651-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1069,30 +1633,72 @@
     <t>This hotel is very nice, very clean and has great staff. The rooms are not huge, but they provide plenty of space. They have refrigerators and microwaves. No noise at night. The pool is small but nice. We would most definitely stay again, especially at the price. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r199478525-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199478525</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Very nice..spacious room..</t>
+  </si>
+  <si>
+    <t>I went with my husband and stayed for just one night as it was the week end and he was in Houston for the week for business. We reserved a king room but were upgraded to a King Suite which was very nice. Two separated rooms, with televisions in both rooms, spacious shower but no tub...but the water pressure was wonderful. The room was very clean, bed linens clean and no smell in room or corridor. The outer 'living area' of the suite had a refrigerator and microwave and there were a few throw away plates and utensils provided. Bathroom was spacious and clean and it was central air and heat which is very nice and is quiet compared to some of the places we have stayed with individual units..The staff was outstanding, I needed assistance carrying my things down to my car this afternoon and I can't remember the young mans name but he was very gracious, he brought a luggage cart to my room and when I came downstairs he assisted me to my car and put the items in the car for me...I found his attentiveness and kindness to be very instrumental in my deciding then and there that we will ONLY stay at Holiday Inn in the future..also, the ladies at the front desk were helpful, polite, and respectful as people used to be in the business, they were all top notch...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded April 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2014</t>
+  </si>
+  <si>
+    <t>I went with my husband and stayed for just one night as it was the week end and he was in Houston for the week for business. We reserved a king room but were upgraded to a King Suite which was very nice. Two separated rooms, with televisions in both rooms, spacious shower but no tub...but the water pressure was wonderful. The room was very clean, bed linens clean and no smell in room or corridor. The outer 'living area' of the suite had a refrigerator and microwave and there were a few throw away plates and utensils provided. Bathroom was spacious and clean and it was central air and heat which is very nice and is quiet compared to some of the places we have stayed with individual units..The staff was outstanding, I needed assistance carrying my things down to my car this afternoon and I can't remember the young mans name but he was very gracious, he brought a luggage cart to my room and when I came downstairs he assisted me to my car and put the items in the car for me...I found his attentiveness and kindness to be very instrumental in my deciding then and there that we will ONLY stay at Holiday Inn in the future..also, the ladies at the front desk were helpful, polite, and respectful as people used to be in the business, they were all top notch...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r195079633-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195079633</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Good for business</t>
+  </si>
+  <si>
+    <t>A nice business hotel, new and clean. It's close to the energy companies in Houston but not much else. Wouldn't select it for tourist purposes. Nice big clean room and good internet connection.Breakfast was OK with a wide range of items, although somewhat arbitrary depending on who was serving (sometimes you got 2 pancakes and sometimes 4). Coffee was OK quality, even by European standards. Avoid dinner in the restaurant if you can (there are much better places in Houston). Some dishes were OK, but others were awful (avoid the Pizza).All things considered, it's a good 3-star hotel and we'll be returning to it on the next business trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>A nice business hotel, new and clean. It's close to the energy companies in Houston but not much else. Wouldn't select it for tourist purposes. Nice big clean room and good internet connection.Breakfast was OK with a wide range of items, although somewhat arbitrary depending on who was serving (sometimes you got 2 pancakes and sometimes 4). Coffee was OK quality, even by European standards. Avoid dinner in the restaurant if you can (there are much better places in Houston). Some dishes were OK, but others were awful (avoid the Pizza).All things considered, it's a good 3-star hotel and we'll be returning to it on the next business trip to Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r195077602-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>195077602</t>
   </si>
   <si>
-    <t>02/23/2014</t>
-  </si>
-  <si>
     <t>Meets the Expected Levels of Holiday Inn Express Quality</t>
   </si>
   <si>
     <t>When you stay at an HIE you expect a large, clean room, a comfortable bed, and a good hot breakfast. This HIE meets those expectations and with advance booking the prices are below what you might expect. This HIE is within easy walking distance to several restaurants. I liked the microwave, and refrigerator in the room and really liked the fact that they had wired internet. Too often when you stay at a room at the end of the hall wireless I-net gets spotty. The wired was fast and clean.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
-    <t>Ronald G, Guest Services Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded February 27, 2014</t>
-  </si>
-  <si>
-    <t>Responded February 27, 2014</t>
-  </si>
-  <si>
     <t>When you stay at an HIE you expect a large, clean room, a comfortable bed, and a good hot breakfast. This HIE meets those expectations and with advance booking the prices are below what you might expect. This HIE is within easy walking distance to several restaurants. I liked the microwave, and refrigerator in the room and really liked the fact that they had wired internet. Too often when you stay at a room at the end of the hall wireless I-net gets spotty. The wired was fast and clean.More</t>
   </si>
   <si>
@@ -1132,6 +1738,60 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r180917982-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180917982</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Comfortable hotel with a few issues. Expensive.</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is not a bad hotel, but there is nothing great about it. The rooms are big and comfortable but in fact they are identical to what you will find in any hotel in that category. There are a few minor issues : - the pillow is way too thick if you sleep on the front like me- walls are thin: you can hear the guy in the next room on the phone- the breakfast in either limited (buffet) or expensive (on the menu)- the restaurant is bad Considering those issues and the price of this hotel (very expensive : some nights were charged more than $200 !) I will probably choose a cheaper option next time, as I used to do before (for the same quality)The indoor pool and fitness center, both quite good, do not compensate this disappointing stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is not a bad hotel, but there is nothing great about it. The rooms are big and comfortable but in fact they are identical to what you will find in any hotel in that category. There are a few minor issues : - the pillow is way too thick if you sleep on the front like me- walls are thin: you can hear the guy in the next room on the phone- the breakfast in either limited (buffet) or expensive (on the menu)- the restaurant is bad Considering those issues and the price of this hotel (very expensive : some nights were charged more than $200 !) I will probably choose a cheaper option next time, as I used to do before (for the same quality)The indoor pool and fitness center, both quite good, do not compensate this disappointing stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r179848319-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179848319</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Very good place to stay.</t>
+  </si>
+  <si>
+    <t>Just had my second stay at this hotel. Stayed 3 nights while attending business meetings in the area.Check in was friendly. The room was large, queen size bed, sofa and a desk. There is a fridge, but no safe. Bathroom was very nice. Complimentary internet. Parking is easy accessible and complimentary. The staff in the restaurant are very friendly. Breakfast is good, you can order from the menu or there is a buffet.The only thing to complain about is how thin the walls are. The guy in the room next door had a telephone conversation, and I heard every single word he said. Also, you hear it when people are using the shower or flushing the toilet. The A/C giver some buffer from the sounds, but whenever it is off your hear everythingMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Just had my second stay at this hotel. Stayed 3 nights while attending business meetings in the area.Check in was friendly. The room was large, queen size bed, sofa and a desk. There is a fridge, but no safe. Bathroom was very nice. Complimentary internet. Parking is easy accessible and complimentary. The staff in the restaurant are very friendly. Breakfast is good, you can order from the menu or there is a buffet.The only thing to complain about is how thin the walls are. The guy in the room next door had a telephone conversation, and I heard every single word he said. Also, you hear it when people are using the shower or flushing the toilet. The A/C giver some buffer from the sounds, but whenever it is off your hear everythingMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r179141782-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1861,39 @@
     <t>Last week, I spent several days at this Holiday Inn location for a training meeting for work.  Not only was the room, sports bar and conference facilities great, but the staff was excellent as well.  After a late night with the work team, I encountered Lydia at the front desk who offered myself and my group members wake up calls as well as took it upon herself to give us followup calls as well to ensure we didn't miss our meeting!  Furthermore, overhearing that I was dealing with a summer cold, she also pointed out the availability of cold medicine at the hotel store.  It appears as if she has a heart for hospitality and will go far in this industry!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r166165639-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166165639</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Excellent conference location</t>
+  </si>
+  <si>
+    <t>We held a yearly conference at this location and were impressed with the service, food, and facility. They really catered to all our requests. We enjoyed the first floor restaurant.Breakfast burrito was delicious! Many restaurants are in walking distance for those who want to get away. Nice exercise room and pool. We were happy to stay where we worked for the week. We like the central Houston location for the commuters attending the conference. Very friendly staff to us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r164437668-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164437668</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Top Platinum about reviews</t>
+  </si>
+  <si>
+    <t>I travel for a living to give an idea, I Hit Platinum for 2014 in March. My office is locate a couple of blocks from here. I am writing this review because of I what read in a couple of reviews. I started by going all the hotels around here before picking one as my home away from home. This by far the best hotel around this area. The staff is amazing and go overboard to make sure that you are taken care of. I read a couple of the reviews and was amazed at so of them. One said that there was no tube, there is if you book the right type of room, which is an executive room. the other rooms are smaller and do have shower. I don't understand how this the hotels problem if the customer did not book the right room. I also read the review about bugs, I have stayed in just about every room in thhis hotel and I HAVE NEVER found anything close to what this person wrote.  I stay in hotels all over the U.S and i hate when people do not give credit when credit is do. I stay easily spend 3rds of the year in Hotel across the U.S. this is truely one of the best!MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel for a living to give an idea, I Hit Platinum for 2014 in March. My office is locate a couple of blocks from here. I am writing this review because of I what read in a couple of reviews. I started by going all the hotels around here before picking one as my home away from home. This by far the best hotel around this area. The staff is amazing and go overboard to make sure that you are taken care of. I read a couple of the reviews and was amazed at so of them. One said that there was no tube, there is if you book the right type of room, which is an executive room. the other rooms are smaller and do have shower. I don't understand how this the hotels problem if the customer did not book the right room. I also read the review about bugs, I have stayed in just about every room in thhis hotel and I HAVE NEVER found anything close to what this person wrote.  I stay in hotels all over the U.S and i hate when people do not give credit when credit is do. I stay easily spend 3rds of the year in Hotel across the U.S. this is truely one of the best!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r162734185-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1957,39 @@
     <t>My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about...My parents are in their 70's and traveled from Shreveport, Louisiana to visit me after major surgery and to visit my mother's sister who was recently diagnosed with liver cancer a month ago. I watched this hotel being built, so I know that it is very new. I will not speak on the problems that I experienced with the hotel as they were related to the restaurant, and were easily fixed....I just decided never to eat in the restaurant again. However, on this night, May 10, 2013, I checked my parents and my two year old daughter into the hotel for Mother's Day. We were winding down for the night, and I was back in my home near the hotel, on Westheimer Rd. My parents called me around 9pm, and told me that they pulled back the sheets on the beds to go to sleep, and to their surprise, there were bugs, gnats or fleas EVERYWHERE! My father pulled the bed from the wall, and there were more flying bugs...the room was infested! I immediately got up and went to the hotel to help them and by the time I arrived, my parents had killed about 20-30 of the fling insects. The young man at the front desk was helpful and agreed to move them to another room, but after that sight, who would want to stay in that hotel? I finally had to move my parents and baby about 10 miles away to the Marriot Hotel that they normally stay in when they come to Houston. Although the staff was nice, this experience was the worst that I have ever had and I can absolutely say that I will NEVER stay at ANY Holiday Inn Express hotel EVER again. It is now almost midnight and after I arrived back at home and showered, I am STILL itching from the nightmare. Beware travelers.....check your rtooms BEFORE you actually check in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r160011202-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160011202</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is close to everything. It is off I-10 and close to restaurants and very close to Memorial City Mall and a few minutes from Katy Mills Outlets. The rooms were very quiet and the staff was very helpful. The entrance was a liitle hidden due to it being in back of a shopping center but there was enough parking very close to the entrance. Overall a great experience</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r154510774-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154510774</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great location, we stayed in location on Barker Oaks, but this is the hotel that kept coming up when I picked location, so not sure if they are one in the same.  Anyhow, our stay was pleasant, comfortable and we felt secure.  Nice quick breakfast available with hot foods and no stress.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r154302078-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1273,15 +1999,9 @@
     <t>03/11/2013</t>
   </si>
   <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
     <t>This is a really nice property. It is maintained in as new condition. Friendly staff and comfortable rooms. Close to the Katy freeway, but far enough away for a quite stay. The in house bar and grill has good food that is reasonably priced. I have stayed here several times and will continue to do so.</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r153072618-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +2047,54 @@
     <t>Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche...Imagine my shock when I went into the bathroom at the end of a tiring (and trying) day to have a hot soak for my arthritic joints only to discover NO TUB!! Management said tubs were available in some rooms for the disabled and would not confirm in the future that a room would come with a TUB!! The shower pan wasn't deep enough to trap but an inch or so of water. The shower door itself opens only at one end and forces one to stand in the shower to turn the water on--no reaching in from the side to turn it on to warm up before being splashed with cold water. That shouldn't have concerned me however because there was no "splash"-. Just feeble, straight-pin diameter wisps of trickling water--and not hot enough to help aching shoulders anyway , nor warm enough to drive away the goosebumps that plague a woman trying to shave her legs!! I thought at least that I could have a good night's sleep; after all, H.I. boasts that they have both hard and soft pillows and lable them so. However, " soft" still means thick and tall, but with fewer lumps  of torn foam filling. Better labeling would be "lumpy" and "lumpier", but none were appropriate for a woman side sleeper with narrow shoulders. Since this Holiday Inn does not offer complimentary breakfast with their $179 rate, I am having a lovely quiche down the street where the atmosphere lends itself to grousing on Trip Advisir about my less than satisfactory stay! I will not stay st the Rldridge Parkway H.I. again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r151925661-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151925661</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>A Good Choice in the Energy Corridor</t>
+  </si>
+  <si>
+    <t>If you are seeking a good hotel centrally located this is a good option.  I am historically a Marriott and Hilton/HGI loyal customer but didn't find those options here.  I was directed to this location and was pleasantly surprised.  The look and decor are better than I expected.  The staff is friendly and helpful and it's a very clean location.
+Here's a couple of tips and insights when choosing this location:
+1.  If you're noise sensitive, ask for a secluded room.  While generally my 3 day stay has been very quiet, the walls are thin.  You can hear everything.
+2.  It's very central to many great restaurants, walking, etc.   Sushi next door was very good and open late.
+3.  Very small fitness room.  Nice Business Center is available.
+4.  I've read much about the rooms. I will confirm they are generally small, like a Courtyard and have some quirky features like the bathroom door won't stay open, furniture is large although doesn't really block entryways.  The water pressure is bizarre.  You can adjust it but it's not good.  Positively, it's new, clean, comfortable.  The mattress is acceptable but not good/great.  refrigerator and microwave in room is nice to have.  Parking is super easy and well lit.
+5. Restaurant - I have only enjoyed breakfast and would add it was good.  (Bowl of fruit) Extremely fresh, cheap for a hotel and quick.  Coffee left something to be desired, but I'm an...If you are seeking a good hotel centrally located this is a good option.  I am historically a Marriott and Hilton/HGI loyal customer but didn't find those options here.  I was directed to this location and was pleasantly surprised.  The look and decor are better than I expected.  The staff is friendly and helpful and it's a very clean location.Here's a couple of tips and insights when choosing this location:1.  If you're noise sensitive, ask for a secluded room.  While generally my 3 day stay has been very quiet, the walls are thin.  You can hear everything.2.  It's very central to many great restaurants, walking, etc.   Sushi next door was very good and open late.3.  Very small fitness room.  Nice Business Center is available.4.  I've read much about the rooms. I will confirm they are generally small, like a Courtyard and have some quirky features like the bathroom door won't stay open, furniture is large although doesn't really block entryways.  The water pressure is bizarre.  You can adjust it but it's not good.  Positively, it's new, clean, comfortable.  The mattress is acceptable but not good/great.  refrigerator and microwave in room is nice to have.  Parking is super easy and well lit.5. Restaurant - I have only enjoyed breakfast and would add it was good.  (Bowl of fruit) Extremely fresh, cheap for a hotel and quick.  Coffee left something to be desired, but I'm an admitted snob.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are seeking a good hotel centrally located this is a good option.  I am historically a Marriott and Hilton/HGI loyal customer but didn't find those options here.  I was directed to this location and was pleasantly surprised.  The look and decor are better than I expected.  The staff is friendly and helpful and it's a very clean location.
+Here's a couple of tips and insights when choosing this location:
+1.  If you're noise sensitive, ask for a secluded room.  While generally my 3 day stay has been very quiet, the walls are thin.  You can hear everything.
+2.  It's very central to many great restaurants, walking, etc.   Sushi next door was very good and open late.
+3.  Very small fitness room.  Nice Business Center is available.
+4.  I've read much about the rooms. I will confirm they are generally small, like a Courtyard and have some quirky features like the bathroom door won't stay open, furniture is large although doesn't really block entryways.  The water pressure is bizarre.  You can adjust it but it's not good.  Positively, it's new, clean, comfortable.  The mattress is acceptable but not good/great.  refrigerator and microwave in room is nice to have.  Parking is super easy and well lit.
+5. Restaurant - I have only enjoyed breakfast and would add it was good.  (Bowl of fruit) Extremely fresh, cheap for a hotel and quick.  Coffee left something to be desired, but I'm an...If you are seeking a good hotel centrally located this is a good option.  I am historically a Marriott and Hilton/HGI loyal customer but didn't find those options here.  I was directed to this location and was pleasantly surprised.  The look and decor are better than I expected.  The staff is friendly and helpful and it's a very clean location.Here's a couple of tips and insights when choosing this location:1.  If you're noise sensitive, ask for a secluded room.  While generally my 3 day stay has been very quiet, the walls are thin.  You can hear everything.2.  It's very central to many great restaurants, walking, etc.   Sushi next door was very good and open late.3.  Very small fitness room.  Nice Business Center is available.4.  I've read much about the rooms. I will confirm they are generally small, like a Courtyard and have some quirky features like the bathroom door won't stay open, furniture is large although doesn't really block entryways.  The water pressure is bizarre.  You can adjust it but it's not good.  Positively, it's new, clean, comfortable.  The mattress is acceptable but not good/great.  refrigerator and microwave in room is nice to have.  Parking is super easy and well lit.5. Restaurant - I have only enjoyed breakfast and would add it was good.  (Bowl of fruit) Extremely fresh, cheap for a hotel and quick.  Coffee left something to be desired, but I'm an admitted snob.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r150840784-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150840784</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Consistently Good</t>
+  </si>
+  <si>
+    <t>I have been staying at this property for a couple of years. My most recent visit was 1/24/2013 to 1/27/2013. The King Executive rooms are spacious, well appointed, and very quiet. The staff are friendly and most helpful. The on site restaurant and bar has a decent, reasonably priced menu and fast service. The hotel is fairly new and in a good location. On occasion the staff posts a sign in the lobby welcoming me back. Overall a good value for the money.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r150239699-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +2164,45 @@
     <t>I am a frequent guest in IHG hotels.  While the hotel was clean, well appointed rooms and the staff was courteous, you could hear all conversations between adjoining rooms.  We spent two nights here.  On the first night, we went to bed at 9:00.  Approximately 30 minutes later, we were awakened to the nieghbors on one side returning to their room.  Despite the fact that I had my sound machine on LOUD, I could still hear them.  At 3:00 AM the guests on the other side arrived from Japan.  While the adult showered, the son must have turned on his headphones and proceeded to serenade us in japanese at the top of his lungs.To the front desks's credit, they offered to move us.  However my kids (who can sleep through a hurricane) were asleep and I didn't wish to move them.  While the second night was a little better, you could still hear the adjoining guests.  This is unacceptable for such a nice, new hotel to have this problem.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r144945496-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144945496</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel for long stays. I think it is a good value option. Very clean and tidy rooms with a modern minimalistic design that have everything. Staff very helpful. The gym and pool are rather tiny though. In general a good option. The restaurant is not so good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r142915403-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142915403</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>When you walk into the room, you think "Oh, this is nice!", but then you change your mind after awhile.  The air conditioner was the kind that was in the window, and we couldn't get it to cool well.  The air blew straight up into the curtains and not into the room, and it wasn't cool at that.  I had to take one of their hangers with clips on it and clip the drapes away from the vents.  That meant I couldn't close the drapes at night, and beside from a lack of privacy, the outside lights flooded the room.  The mattress was horrible.  It felt like it was full of springs and spongy.  I tossed and turned all night.  My husband couldn't get hot water in the shower, but finally did only after manipulating the controls.  There was a huge beautiful armoire in the room, but that left only 15 inches of space between it and the bed.  The room needed to be a foot wider if they were going to use that instead of closets.  There wasn't any moisturizer in the bathroom.  I looked because someone else had mentioned it, and the hotels response was that they were sorry, but it was supposed to be there.  Well, it wasn't.  Breakfast was good.  Pretty much what one expects from holiday inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston West Energy Corridor, responded to this reviewResponded October 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2012</t>
+  </si>
+  <si>
+    <t>When you walk into the room, you think "Oh, this is nice!", but then you change your mind after awhile.  The air conditioner was the kind that was in the window, and we couldn't get it to cool well.  The air blew straight up into the curtains and not into the room, and it wasn't cool at that.  I had to take one of their hangers with clips on it and clip the drapes away from the vents.  That meant I couldn't close the drapes at night, and beside from a lack of privacy, the outside lights flooded the room.  The mattress was horrible.  It felt like it was full of springs and spongy.  I tossed and turned all night.  My husband couldn't get hot water in the shower, but finally did only after manipulating the controls.  There was a huge beautiful armoire in the room, but that left only 15 inches of space between it and the bed.  The room needed to be a foot wider if they were going to use that instead of closets.  There wasn't any moisturizer in the bathroom.  I looked because someone else had mentioned it, and the hotels response was that they were sorry, but it was supposed to be there.  Well, it wasn't.  Breakfast was good.  Pretty much what one expects from holiday inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r141992523-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1411,9 +2218,6 @@
     <t>I have stayed at this hotel quite a few times.  The location for my purposes can't be beat.  The staff is friendly. The property is clean and the rooms are comfortable.  The restaurant/bar works if you don't feel like venturing out - though right around the perimeter of the parking lot is a sushi place, Jimmy Johns, some bar and grill.  There is a bbq place and some other options across the street.  The area is nice if you are a walker or jogger.  This review would get an excellent if it weren't for the fire alarm that went off at 2 am....again shortly after....then again.  And though by this time I was in some kind of fuzzy sleep coma I think it may have went off again???  Anyway, stuff happens and this is where I will stay again on my next trip into Houston without question.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>I have stayed at this hotel quite a few times.  The location for my purposes can't be beat.  The staff is friendly. The property is clean and the rooms are comfortable.  The restaurant/bar works if you don't feel like venturing out - though right around the perimeter of the parking lot is a sushi place, Jimmy Johns, some bar and grill.  There is a bbq place and some other options across the street.  The area is nice if you are a walker or jogger.  This review would get an excellent if it weren't for the fire alarm that went off at 2 am....again shortly after....then again.  And though by this time I was in some kind of fuzzy sleep coma I think it may have went off again???  Anyway, stuff happens and this is where I will stay again on my next trip into Houston without question.More</t>
   </si>
   <si>
@@ -1447,6 +2251,39 @@
     <t>Bottom line - I've stayed at many hotels west of the beltway and I-10 in Houston and this hotel is Excellent across the board!  Clean, great service, great staff, fun bar and great food!  Nice area with many places to go hangout and eat in walking distance.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r137993558-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137993558</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Wedding Guest</t>
+  </si>
+  <si>
+    <t>The hotel and it's staff were excellent.  Had daughters rehearsal dinner at hotel.... food was outstanding and the decor was beautiful.  Have stayed at this Holiday in several times now and each time the staff and hotel accommadations have been outstanding.  The restaurant food is excellent no matter what meal you are having.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r137128378-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137128378</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>very friendly staff</t>
+  </si>
+  <si>
+    <t>It is an okay hotel that meets expectations on cleanliness, amenities, etc.  It's selling point however is its very friendly staff particularly those at the front desk, shuttle service and the restaurant.  Stayed there for 10 nights.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r136430445-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1462,9 +2299,6 @@
     <t>I have stayed in this hotel on more occasions than I can remember, usually for one or two nights.  Most recently I stayed on two separate occasions in July.The hotel is comfortable, efficient and clean but perhaps slightly lacking in atmosphere.Each room I have had has been well-sized and suitably furnished.  The decor in the rooms is dark and quite formal which can feel a little heavy but as it is still very new the overall effect is smart and business-like.  The beds are comfortable and the wifi works well.  I have found the air-con to be on the noisy side and the setting options appear to have been limited.  A big plus is that the rooms are well provided with power outlets where a business traveller needs them including beside the bed for charging phone, iPad etc.The pool feels clean and is pleasant to use.  It is not large but does not appear to be heavily used so it is often possible to swim diagonally to get an extra stroke in.Breakfast is typical for a Holiday Inn and the standard of service has improved noticeably since my previous visit in May: more staff and much more responsive.I have found the front desk staff to be polite and attentive.  The shop, whilst small, has always managed to provide essentials when required.MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>I have stayed in this hotel on more occasions than I can remember, usually for one or two nights.  Most recently I stayed on two separate occasions in July.The hotel is comfortable, efficient and clean but perhaps slightly lacking in atmosphere.Each room I have had has been well-sized and suitably furnished.  The decor in the rooms is dark and quite formal which can feel a little heavy but as it is still very new the overall effect is smart and business-like.  The beds are comfortable and the wifi works well.  I have found the air-con to be on the noisy side and the setting options appear to have been limited.  A big plus is that the rooms are well provided with power outlets where a business traveller needs them including beside the bed for charging phone, iPad etc.The pool feels clean and is pleasant to use.  It is not large but does not appear to be heavily used so it is often possible to swim diagonally to get an extra stroke in.Breakfast is typical for a Holiday Inn and the standard of service has improved noticeably since my previous visit in May: more staff and much more responsive.I have found the front desk staff to be polite and attentive.  The shop, whilst small, has always managed to provide essentials when required.More</t>
   </si>
   <si>
@@ -1499,6 +2333,36 @@
   </si>
   <si>
     <t>Stayed here over Father's Day weekend (without my family) and wanted to do my usual Father's Day fishing trip. The staff couldn't have been more helpful - they helped me work out the place to go and they organised the Holiday Inn bus to take me there and back via the Academy to get my bait and licence - I had a great time!The facilities were very good - I used the free wifi and the coffee machine in the room. Very quiet so slept very well.I've marked them down on location only because of the crazy long term road works nearby which meant that the journey to the office (just over a mile and a half away) took nearly 45 minutes in the morning, and twenty minutes in the evening.I used the restaurant for my meals and once I figured out the truly enormous servings I managed to find some items on the menu that were more reasonably sized. I've marked down the breakfast - the food was fine, but the service was terrible - one morning they mixed up the orders and after two attempts to get it right I walked out. On the last morning they took over thirty minutes to serve up. Unlike the reception desk, the restaurant staff appear very young and inexperienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r132075954-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132075954</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>nice hotel, no breakfast at all (free)</t>
+  </si>
+  <si>
+    <t>Nice hotel....only thing to know about this hotel is that there is no complementary breakfast at all. Drive down the street and there is an Einstein's bagel place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r131917531-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131917531</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Friendly, just the ticket for a business trip!</t>
+  </si>
+  <si>
+    <t>Friendly welcoming staff, which is a great bonus if here for business. Great size rooms and they are kept pretty spotless too. Small and fitness room are small but clean. Get yourself a car, otherwise you can feel pretty isolated! Good selection of shops close by (1k)</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r130795210-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1576,6 +2440,46 @@
   </si>
   <si>
     <t>A issue I faced was at the meeting room. I had a group of about 22 people and was told that if we all use the restaurant of the hotel, we would not be charged for the meeting room, told by the manager. Few days later, I received the cotation to use the room, this was not the deal. They gave me a good discount but this was not the initial deal. I was very disappointed with their behavior, we went to another hotel and got the meeting room for free!By the way, I had to pick up a body lotion and a shower cap at the lobby....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r124247915-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124247915</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Good service, excellent room and amenities but hire a car to avoid isolation</t>
+  </si>
+  <si>
+    <t>This modern hotel is well located for visitors to the enrgy corridor.  Hotel restaurant doubles as a sports bar and is versatile enough to serve proper meals and drinks.  Room facilities excellent size and good wifi.  Food quality alright but the menu is over-hyped so don't be convinced by the positive adjectives on the dishes.  Bacon for example is watch-strap thin, fatty and overcooked - so avoid.  Coffee is insipid.  Drink the coffee in the bedroom - it's much better, albeit still on the weak side.  There are far too many huge intrusive TVs in the restaurant so not the place to relax without visual pollution (ie American 'football', basket and CNN).
+Service is enthusiastic by all employees especially reception.  Decent pool and gym.  Bikes for hire (just $5) so you can get some open-air exercise in the nearby riparian parks.  Hotel provides a shuttle bus to destinations within 5 miles - so all energy companies nearby plus shopping malls and outlets (recommend mega supermarket Target for electronics and most else).    Eldridge is a long long way to downtown - a good 20 miles and 45 minute journey along flat freeways.  The city is charmless.  Think Milton Keynes and the industrial suburbs of Birmingham.  Downtown is strictly utilitarian with no non-work related urban life to speak of.
+The hotel is good value but isolated.  If you want to spend more than a couple fo days here then rent a car...This modern hotel is well located for visitors to the enrgy corridor.  Hotel restaurant doubles as a sports bar and is versatile enough to serve proper meals and drinks.  Room facilities excellent size and good wifi.  Food quality alright but the menu is over-hyped so don't be convinced by the positive adjectives on the dishes.  Bacon for example is watch-strap thin, fatty and overcooked - so avoid.  Coffee is insipid.  Drink the coffee in the bedroom - it's much better, albeit still on the weak side.  There are far too many huge intrusive TVs in the restaurant so not the place to relax without visual pollution (ie American 'football', basket and CNN).Service is enthusiastic by all employees especially reception.  Decent pool and gym.  Bikes for hire (just $5) so you can get some open-air exercise in the nearby riparian parks.  Hotel provides a shuttle bus to destinations within 5 miles - so all energy companies nearby plus shopping malls and outlets (recommend mega supermarket Target for electronics and most else).    Eldridge is a long long way to downtown - a good 20 miles and 45 minute journey along flat freeways.  The city is charmless.  Think Milton Keynes and the industrial suburbs of Birmingham.  Downtown is strictly utilitarian with no non-work related urban life to speak of.The hotel is good value but isolated.  If you want to spend more than a couple fo days here then rent a car so that you can visit other Malls and maybe get out to neaerby coastal towns like Galveston.  A couple of restaurants and coffe bars nearby for respite: Coffee Bean (beterr coffee than hotel), a small Italian across the street.  Sharky's - a restaurant, bar doing a reasonable range of local seafood Gumbos, shrimps etc along with usual burgers. Also a Japanese sushi bar alongside. Recommend the hotel but the city suburbs are a kind of sanitised purgatory - people used to pavements (there are hardly any), urban life with people walking around and basic public transport will suffer.MoreShow less</t>
+  </si>
+  <si>
+    <t>This modern hotel is well located for visitors to the enrgy corridor.  Hotel restaurant doubles as a sports bar and is versatile enough to serve proper meals and drinks.  Room facilities excellent size and good wifi.  Food quality alright but the menu is over-hyped so don't be convinced by the positive adjectives on the dishes.  Bacon for example is watch-strap thin, fatty and overcooked - so avoid.  Coffee is insipid.  Drink the coffee in the bedroom - it's much better, albeit still on the weak side.  There are far too many huge intrusive TVs in the restaurant so not the place to relax without visual pollution (ie American 'football', basket and CNN).
+Service is enthusiastic by all employees especially reception.  Decent pool and gym.  Bikes for hire (just $5) so you can get some open-air exercise in the nearby riparian parks.  Hotel provides a shuttle bus to destinations within 5 miles - so all energy companies nearby plus shopping malls and outlets (recommend mega supermarket Target for electronics and most else).    Eldridge is a long long way to downtown - a good 20 miles and 45 minute journey along flat freeways.  The city is charmless.  Think Milton Keynes and the industrial suburbs of Birmingham.  Downtown is strictly utilitarian with no non-work related urban life to speak of.
+The hotel is good value but isolated.  If you want to spend more than a couple fo days here then rent a car...This modern hotel is well located for visitors to the enrgy corridor.  Hotel restaurant doubles as a sports bar and is versatile enough to serve proper meals and drinks.  Room facilities excellent size and good wifi.  Food quality alright but the menu is over-hyped so don't be convinced by the positive adjectives on the dishes.  Bacon for example is watch-strap thin, fatty and overcooked - so avoid.  Coffee is insipid.  Drink the coffee in the bedroom - it's much better, albeit still on the weak side.  There are far too many huge intrusive TVs in the restaurant so not the place to relax without visual pollution (ie American 'football', basket and CNN).Service is enthusiastic by all employees especially reception.  Decent pool and gym.  Bikes for hire (just $5) so you can get some open-air exercise in the nearby riparian parks.  Hotel provides a shuttle bus to destinations within 5 miles - so all energy companies nearby plus shopping malls and outlets (recommend mega supermarket Target for electronics and most else).    Eldridge is a long long way to downtown - a good 20 miles and 45 minute journey along flat freeways.  The city is charmless.  Think Milton Keynes and the industrial suburbs of Birmingham.  Downtown is strictly utilitarian with no non-work related urban life to speak of.The hotel is good value but isolated.  If you want to spend more than a couple fo days here then rent a car so that you can visit other Malls and maybe get out to neaerby coastal towns like Galveston.  A couple of restaurants and coffe bars nearby for respite: Coffee Bean (beterr coffee than hotel), a small Italian across the street.  Sharky's - a restaurant, bar doing a reasonable range of local seafood Gumbos, shrimps etc along with usual burgers. Also a Japanese sushi bar alongside. Recommend the hotel but the city suburbs are a kind of sanitised purgatory - people used to pavements (there are hardly any), urban life with people walking around and basic public transport will suffer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r123659812-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123659812</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Great Management</t>
+  </si>
+  <si>
+    <t>Very nice location.. More BANG for your $$$ and the management and front desk are nice.Oh and its SUPER clean which is an A++ for me</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r121951996-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1639,6 +2543,42 @@
 Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.
 There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. 
 This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but...Stayed four nights while on business in Houston. Check in was smooth. Large and light lobby. Free parking just outside the front entrance. Room was large, with refriferator and microwave oven. No minibar, but they sell drinks and snack in the lobby, inexpensive compared to usual hotel prices. The bathroom was very nice and modern, the soap and shampoo of the cheap sort, so good, so bring your own if you are picky... Free wi-fi, worked excellent! Everything was clean. Had breakfast in the hotel restaurant, either you can order from a meny or go for the buffet. Not much to choose from at the buffet, but food  was good and reasonably priced. The waiter was very friendly. At night you could have dinner or just a beer in the restaurant, it had a sort of diner/sportsbar feel to it.There is a small gym, only one treadmill, but no one else there at 6 a.m, so no problem! small, indoor pool. This is not a hotel you would stay at while on vacation, only if you have business or other reasons to spend some nights in Houston, or if you are just passing by and needs a place to sleep. You will not get anywhere in Houston without a car, however the hotel did have a shuttle that would take hotel guests to their office if nearby. There were some small restaurants and shops just outside the hotel, but if you want to do some serious shopping, Memorial City Mall is excellent, and not far, i would guess 10-15 minute drive, depending on traffic.All in all, can recommend this hotel if you need somewhere to stay in this area of Houston, and the price was I got was very good, around USD 100 plus tax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r117982017-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117982017</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Me Time</t>
+  </si>
+  <si>
+    <t>I frequent this hotel on a regular basis... reminds me of my home away from home.. you are surrounded by the trendiest spots in town... plus the mall is 10-15 minutes from your hotel...</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r117925771-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117925771</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>Consistently good accomodations</t>
+  </si>
+  <si>
+    <t>Stayed here for a second time in July 2011 and was pleased to receive the same friendly &amp; courteous service at reception.  The room was of a good standard with a very comfortable bed.  Shower pressure in the bathroom was better this time.  Unfortunately the catering and room service still has a long. long way to go before it even reaches barely acceptable.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r116608553-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1702,7 +2642,49 @@
     <t>Located about one mile south of the Katy Freeway, just south of Memorial on Eldridge parkway this is a new hotel with great weekend rates on priceline. Remember you are close to highway 6 so, you are 15+ miles west of downtown.  Safe upscale area.</t>
   </si>
   <si>
-    <t>July 2011</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r105342312-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>105342312</t>
+  </si>
+  <si>
+    <t>04/24/2011</t>
+  </si>
+  <si>
+    <t>Ticks most of the boxes</t>
+  </si>
+  <si>
+    <t>Checked in very early at 11am after a long intercontinental flight.  My room was not ready but the friendly and efficient young man at reception found me a room with no trouble and checked me in there and then.  Parking was plentiful and free.  Throughout my stay I found the recption staff helpful, friendly and always smiling..
+The room was large but the decor was dull and the energy-saver lighting was hopelessly inadequate for a room that size.  This gave an overall dingy feel to the place which it did not really deserve being only a couple of years old.  Very comfortable bed and nice flat screen TV let down by the very few entertainment channels available.  Fridge and microwave were low-tech but functional.  The A/C unit was, incredibly, window mounted and very noisy.  It worked well though.  Wireless Internet was free with several APs to choose from and a strong signal throughout the hotel.
+Bathroom was large and had plenty of towels and amenities.  The shower pressure was little more than a trickle and the water temperature no more than lukewarm at the best of times.  This made my overall stay quite uncomfortable.  Requests to address it seemed to have been ignored as it stayed the same the whole time I was there (8 days) and there was never any feedback from reception about it.
+Room service was poor - cold, dry food.  The Sporting News restaurant was terrible...Checked in very early at 11am after a long intercontinental flight.  My room was not ready but the friendly and efficient young man at reception found me a room with no trouble and checked me in there and then.  Parking was plentiful and free.  Throughout my stay I found the recption staff helpful, friendly and always smiling..The room was large but the decor was dull and the energy-saver lighting was hopelessly inadequate for a room that size.  This gave an overall dingy feel to the place which it did not really deserve being only a couple of years old.  Very comfortable bed and nice flat screen TV let down by the very few entertainment channels available.  Fridge and microwave were low-tech but functional.  The A/C unit was, incredibly, window mounted and very noisy.  It worked well though.  Wireless Internet was free with several APs to choose from and a strong signal throughout the hotel.Bathroom was large and had plenty of towels and amenities.  The shower pressure was little more than a trickle and the water temperature no more than lukewarm at the best of times.  This made my overall stay quite uncomfortable.  Requests to address it seemed to have been ignored as it stayed the same the whole time I was there (8 days) and there was never any feedback from reception about it.Room service was poor - cold, dry food.  The Sporting News restaurant was terrible with incompetent staff and poorly cooked food.  No point going into details, every meal had somethinbg wrong with it.Housekeeping was a bit haphazard with timings, particularly at the weekend, but the room was kept spotlessly clean and tidy.  Checkout was quick and easy.The hotel was well located for my business needs and there are plenty of shops, banks and restaurants close by.I would recommend this hotel, just avoid the catering.  I would have rated it very good if it were not for the restaurant experiences.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Checked in very early at 11am after a long intercontinental flight.  My room was not ready but the friendly and efficient young man at reception found me a room with no trouble and checked me in there and then.  Parking was plentiful and free.  Throughout my stay I found the recption staff helpful, friendly and always smiling..
+The room was large but the decor was dull and the energy-saver lighting was hopelessly inadequate for a room that size.  This gave an overall dingy feel to the place which it did not really deserve being only a couple of years old.  Very comfortable bed and nice flat screen TV let down by the very few entertainment channels available.  Fridge and microwave were low-tech but functional.  The A/C unit was, incredibly, window mounted and very noisy.  It worked well though.  Wireless Internet was free with several APs to choose from and a strong signal throughout the hotel.
+Bathroom was large and had plenty of towels and amenities.  The shower pressure was little more than a trickle and the water temperature no more than lukewarm at the best of times.  This made my overall stay quite uncomfortable.  Requests to address it seemed to have been ignored as it stayed the same the whole time I was there (8 days) and there was never any feedback from reception about it.
+Room service was poor - cold, dry food.  The Sporting News restaurant was terrible...Checked in very early at 11am after a long intercontinental flight.  My room was not ready but the friendly and efficient young man at reception found me a room with no trouble and checked me in there and then.  Parking was plentiful and free.  Throughout my stay I found the recption staff helpful, friendly and always smiling..The room was large but the decor was dull and the energy-saver lighting was hopelessly inadequate for a room that size.  This gave an overall dingy feel to the place which it did not really deserve being only a couple of years old.  Very comfortable bed and nice flat screen TV let down by the very few entertainment channels available.  Fridge and microwave were low-tech but functional.  The A/C unit was, incredibly, window mounted and very noisy.  It worked well though.  Wireless Internet was free with several APs to choose from and a strong signal throughout the hotel.Bathroom was large and had plenty of towels and amenities.  The shower pressure was little more than a trickle and the water temperature no more than lukewarm at the best of times.  This made my overall stay quite uncomfortable.  Requests to address it seemed to have been ignored as it stayed the same the whole time I was there (8 days) and there was never any feedback from reception about it.Room service was poor - cold, dry food.  The Sporting News restaurant was terrible with incompetent staff and poorly cooked food.  No point going into details, every meal had somethinbg wrong with it.Housekeeping was a bit haphazard with timings, particularly at the weekend, but the room was kept spotlessly clean and tidy.  Checkout was quick and easy.The hotel was well located for my business needs and there are plenty of shops, banks and restaurants close by.I would recommend this hotel, just avoid the catering.  I would have rated it very good if it were not for the restaurant experiences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r102966966-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102966966</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>Poorly Run and Overpriced</t>
+  </si>
+  <si>
+    <t>This is one of the more poorly run hotels I've stayed in and moved hotels after two weeks.  Forget about Room Service as the phone rings off the hook and nobody ever answers.  I waited in the restaurant for 45 minutes one morning and only got served because I complained.  Came home one day and my room was not made up.  I could go on but don't feel like wasting my time.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1575212-r98561339-Holiday_Inn_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1739,9 +2721,6 @@
   </si>
   <si>
     <t>01/22/2011</t>
-  </si>
-  <si>
-    <t>Disappointing</t>
   </si>
   <si>
     <t>My husband and I were excited to stay here, as this was supposed to be a nice, new hotel. We walked into our (non smoking) room, and the first thing that hit me was the stench. It smelled stale and mildew-y, like an old, cheap motel, definitely not a non-smoking one. Then, we found hair in both the bed and sink. Gross. THEN, as if that weren't bad enough, the next morning we spent 15 minutes trying to check out. The guy didn't know how to do so, so he had to call another employee at home. He ended up charging us twice. Would not recommend this place, at least until hey get their act together and train their staff to do their jobs (and clean!!!) better. MoreShow less</t>
@@ -2309,7 +3288,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2319,17 +3298,25 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2345,7 +3332,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2354,25 +3341,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2383,14 +3370,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s">
-        <v>61</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2406,7 +3389,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2415,22 +3398,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -2447,7 +3430,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2463,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2472,22 +3455,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -2501,10 +3484,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2520,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2529,45 +3516,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2583,7 +3564,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2592,43 +3573,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2644,7 +3621,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2653,47 +3630,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
         <v>94</v>
       </c>
@@ -2711,7 +3678,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2720,22 +3687,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -2749,14 +3716,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X9" t="s">
-        <v>102</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2772,56 +3735,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" t="s">
-        <v>108</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2837,58 +3798,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" t="s">
-        <v>118</v>
-      </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>120</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2904,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2913,49 +3868,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2971,7 +3916,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2980,47 +3925,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -3036,7 +3977,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3045,49 +3986,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -3103,7 +4044,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3112,25 +4053,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3142,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -3164,7 +4105,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3173,33 +4114,31 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -3209,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -3231,7 +4170,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3240,43 +4179,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="s"/>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -3292,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3301,34 +4244,34 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>4</v>
@@ -3337,13 +4280,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3359,7 +4302,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3368,49 +4311,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -3426,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3435,22 +4378,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -3461,23 +4404,23 @@
       </c>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -3493,7 +4436,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3502,43 +4445,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -3554,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3563,22 +4510,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -3593,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3615,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3624,22 +4571,22 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
@@ -3648,25 +4595,25 @@
       <c r="Q23" t="n">
         <v>5</v>
       </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -3682,7 +4629,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3691,43 +4638,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
@@ -3743,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3752,49 +4705,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3810,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3819,43 +4766,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3871,7 +4824,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3880,43 +4833,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
@@ -3932,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3941,49 +4900,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
@@ -3999,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4008,49 +4967,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -4066,7 +5019,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4075,33 +5028,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4111,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
@@ -4133,7 +5086,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4142,43 +5095,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4194,7 +5153,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4203,47 +5162,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>303</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -4259,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4268,47 +5219,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>303</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -4324,7 +5267,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4333,32 +5276,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4367,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -4389,7 +5334,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4398,53 +5343,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
@@ -4460,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4469,53 +5404,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="X36" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -4531,7 +5456,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4540,39 +5465,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>123</v>
+      </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="X37" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
@@ -4588,7 +5521,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4597,53 +5530,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>269</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4659,7 +5582,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4668,39 +5591,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4716,7 +5649,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4725,49 +5658,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
@@ -4783,7 +5710,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4792,49 +5719,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="X41" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="Y41" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
@@ -4850,7 +5777,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4859,53 +5786,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
@@ -4921,7 +5838,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4930,32 +5847,28 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>4</v>
       </c>
@@ -4964,15 +5877,19 @@
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>378</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -4988,7 +5905,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4997,49 +5914,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44" t="s">
+        <v>388</v>
+      </c>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -5055,7 +5966,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5064,49 +5975,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>396</v>
+      </c>
+      <c r="X45" t="s">
+        <v>397</v>
+      </c>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
@@ -5122,62 +6027,58 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>404</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="O46" t="s">
         <v>405</v>
       </c>
-      <c r="J46" t="s">
-        <v>406</v>
-      </c>
-      <c r="K46" t="s">
-        <v>407</v>
-      </c>
-      <c r="L46" t="s">
-        <v>408</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>396</v>
-      </c>
-      <c r="O46" t="s">
-        <v>118</v>
-      </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="X46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
@@ -5193,43 +6094,39 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
         <v>412</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>413</v>
       </c>
-      <c r="J47" t="s">
-        <v>414</v>
-      </c>
-      <c r="K47" t="s">
-        <v>415</v>
-      </c>
-      <c r="L47" t="s">
-        <v>416</v>
-      </c>
       <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>417</v>
-      </c>
-      <c r="O47" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5241,8 +6138,12 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>414</v>
+      </c>
+      <c r="X47" t="s">
+        <v>415</v>
+      </c>
       <c r="Y47" t="s">
         <v>416</v>
       </c>
@@ -5260,56 +6161,58 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
         <v>418</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>419</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>420</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>421</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>422</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>423</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
         <v>3</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
       <c r="Y48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49">
@@ -5325,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5334,49 +6237,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J49" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K49" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>431</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="X49" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
@@ -5392,7 +6295,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5401,49 +6304,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
       <c r="Y50" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
@@ -5459,7 +6362,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5468,53 +6371,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>118</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="X51" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52">
@@ -5530,7 +6423,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5539,53 +6432,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s">
-        <v>118</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="X52" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Y52" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53">
@@ -5601,7 +6490,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5610,22 +6499,22 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s">
         <v>53</v>
@@ -5633,12 +6522,8 @@
       <c r="P53" t="n">
         <v>5</v>
       </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>5</v>
       </c>
@@ -5649,10 +6534,14 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>466</v>
+      </c>
+      <c r="X53" t="s">
+        <v>467</v>
+      </c>
       <c r="Y53" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54">
@@ -5668,7 +6557,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5677,35 +6566,29 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J54" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
       </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
@@ -5716,10 +6599,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>475</v>
+      </c>
+      <c r="X54" t="s">
+        <v>476</v>
+      </c>
       <c r="Y54" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55">
@@ -5735,7 +6622,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5744,49 +6631,47 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="J55" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K55" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L55" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="O55" t="s">
         <v>53</v>
       </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>483</v>
+      </c>
+      <c r="X55" t="s">
+        <v>484</v>
+      </c>
       <c r="Y55" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
@@ -5802,7 +6687,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5811,49 +6696,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="J56" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="K56" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="L56" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>491</v>
+      </c>
+      <c r="X56" t="s">
+        <v>492</v>
+      </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57">
@@ -5869,7 +6752,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5878,49 +6761,47 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="O57" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>499</v>
+      </c>
+      <c r="X57" t="s">
+        <v>500</v>
+      </c>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58">
@@ -5936,7 +6817,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5945,49 +6826,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="J58" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K58" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>508</v>
+      </c>
+      <c r="X58" t="s">
+        <v>509</v>
+      </c>
       <c r="Y58" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59">
@@ -6003,7 +6884,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6012,49 +6893,53 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="J59" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
         <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>517</v>
+      </c>
+      <c r="X59" t="s">
+        <v>518</v>
+      </c>
       <c r="Y59" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60">
@@ -6070,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6079,53 +6964,53 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="J60" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="K60" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="L60" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="O60" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="X60" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="Y60" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61">
@@ -6141,7 +7026,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6150,53 +7035,39 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="J61" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="K61" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="L61" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>512</v>
-      </c>
-      <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>3</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="X61" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62">
@@ -6212,7 +7083,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6221,39 +7092,53 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
       </c>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>541</v>
+      </c>
+      <c r="X62" t="s">
+        <v>542</v>
+      </c>
       <c r="Y62" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63">
@@ -6269,7 +7154,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6278,45 +7163,53 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="J63" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="K63" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="L63" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>549</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>550</v>
+      </c>
+      <c r="X63" t="s">
+        <v>551</v>
+      </c>
       <c r="Y63" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64">
@@ -6332,7 +7225,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6341,36 +7234,38 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="J64" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="K64" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="L64" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>3</v>
@@ -6378,10 +7273,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>550</v>
+      </c>
+      <c r="X64" t="s">
+        <v>551</v>
+      </c>
       <c r="Y64" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="65">
@@ -6397,7 +7296,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6406,45 +7305,39 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="J65" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="O65" t="s">
         <v>53</v>
       </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
@@ -6460,7 +7353,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6469,22 +7362,22 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="O66" t="s">
         <v>53</v>
@@ -6492,14 +7385,18 @@
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6507,7 +7404,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67">
@@ -6523,7 +7420,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6532,45 +7429,53 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="J67" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="K67" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="O67" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>576</v>
+      </c>
+      <c r="X67" t="s">
+        <v>577</v>
+      </c>
       <c r="Y67" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
@@ -6586,7 +7491,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6595,25 +7500,25 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="J68" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="K68" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="L68" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="O68" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6622,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S68" t="n">
         <v>4</v>
@@ -6634,10 +7539,14 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>585</v>
+      </c>
+      <c r="X68" t="s">
+        <v>586</v>
+      </c>
       <c r="Y68" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69">
@@ -6653,7 +7562,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6662,45 +7571,49 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s"/>
       <c r="O69" t="s"/>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>593</v>
+      </c>
+      <c r="X69" t="s">
+        <v>594</v>
+      </c>
       <c r="Y69" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70">
@@ -6716,7 +7629,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6725,34 +7638,34 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="J70" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="K70" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="L70" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="O70" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -6765,13 +7678,3077 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="X70" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="Y70" t="s">
-        <v>574</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>605</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>606</v>
+      </c>
+      <c r="J71" t="s">
+        <v>607</v>
+      </c>
+      <c r="K71" t="s">
+        <v>608</v>
+      </c>
+      <c r="L71" t="s">
+        <v>609</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>601</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>612</v>
+      </c>
+      <c r="J72" t="s">
+        <v>613</v>
+      </c>
+      <c r="K72" t="s">
+        <v>614</v>
+      </c>
+      <c r="L72" t="s">
+        <v>615</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>525</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>525</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>622</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>623</v>
+      </c>
+      <c r="J74" t="s">
+        <v>624</v>
+      </c>
+      <c r="K74" t="s">
+        <v>625</v>
+      </c>
+      <c r="L74" t="s">
+        <v>626</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>627</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>630</v>
+      </c>
+      <c r="J75" t="s">
+        <v>631</v>
+      </c>
+      <c r="K75" t="s">
+        <v>632</v>
+      </c>
+      <c r="L75" t="s">
+        <v>633</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>634</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>635</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>636</v>
+      </c>
+      <c r="J76" t="s">
+        <v>637</v>
+      </c>
+      <c r="K76" t="s">
+        <v>638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>639</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>627</v>
+      </c>
+      <c r="O76" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>640</v>
+      </c>
+      <c r="X76" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>643</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>644</v>
+      </c>
+      <c r="J77" t="s">
+        <v>645</v>
+      </c>
+      <c r="K77" t="s">
+        <v>646</v>
+      </c>
+      <c r="L77" t="s">
+        <v>647</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>648</v>
+      </c>
+      <c r="O77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>649</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>650</v>
+      </c>
+      <c r="J78" t="s">
+        <v>651</v>
+      </c>
+      <c r="K78" t="s">
+        <v>652</v>
+      </c>
+      <c r="L78" t="s">
+        <v>653</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>648</v>
+      </c>
+      <c r="O78" t="s">
+        <v>123</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>654</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>655</v>
+      </c>
+      <c r="J79" t="s">
+        <v>656</v>
+      </c>
+      <c r="K79" t="s">
+        <v>454</v>
+      </c>
+      <c r="L79" t="s">
+        <v>657</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>648</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>659</v>
+      </c>
+      <c r="J80" t="s">
+        <v>660</v>
+      </c>
+      <c r="K80" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>663</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>665</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>666</v>
+      </c>
+      <c r="J81" t="s">
+        <v>667</v>
+      </c>
+      <c r="K81" t="s">
+        <v>668</v>
+      </c>
+      <c r="L81" t="s">
+        <v>669</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>670</v>
+      </c>
+      <c r="X81" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>673</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>674</v>
+      </c>
+      <c r="J82" t="s">
+        <v>675</v>
+      </c>
+      <c r="K82" t="s">
+        <v>676</v>
+      </c>
+      <c r="L82" t="s">
+        <v>677</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>663</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>679</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>680</v>
+      </c>
+      <c r="J83" t="s">
+        <v>681</v>
+      </c>
+      <c r="K83" t="s">
+        <v>682</v>
+      </c>
+      <c r="L83" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>684</v>
+      </c>
+      <c r="O83" t="s">
+        <v>113</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>685</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>686</v>
+      </c>
+      <c r="J84" t="s">
+        <v>687</v>
+      </c>
+      <c r="K84" t="s">
+        <v>688</v>
+      </c>
+      <c r="L84" t="s">
+        <v>689</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>690</v>
+      </c>
+      <c r="O84" t="s">
+        <v>113</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>692</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>693</v>
+      </c>
+      <c r="J85" t="s">
+        <v>694</v>
+      </c>
+      <c r="K85" t="s">
+        <v>695</v>
+      </c>
+      <c r="L85" t="s">
+        <v>696</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>697</v>
+      </c>
+      <c r="O85" t="s">
+        <v>123</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>698</v>
+      </c>
+      <c r="X85" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>701</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>702</v>
+      </c>
+      <c r="J86" t="s">
+        <v>694</v>
+      </c>
+      <c r="K86" t="s">
+        <v>703</v>
+      </c>
+      <c r="L86" t="s">
+        <v>704</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>690</v>
+      </c>
+      <c r="O86" t="s">
+        <v>123</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>705</v>
+      </c>
+      <c r="X86" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>708</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>709</v>
+      </c>
+      <c r="J87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" t="s">
+        <v>139</v>
+      </c>
+      <c r="L87" t="s">
+        <v>711</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>712</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>713</v>
+      </c>
+      <c r="J88" t="s">
+        <v>714</v>
+      </c>
+      <c r="K88" t="s">
+        <v>715</v>
+      </c>
+      <c r="L88" t="s">
+        <v>716</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>717</v>
+      </c>
+      <c r="O88" t="s">
+        <v>123</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>718</v>
+      </c>
+      <c r="X88" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>721</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>722</v>
+      </c>
+      <c r="J89" t="s">
+        <v>723</v>
+      </c>
+      <c r="K89" t="s">
+        <v>724</v>
+      </c>
+      <c r="L89" t="s">
+        <v>725</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>717</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>727</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>728</v>
+      </c>
+      <c r="J90" t="s">
+        <v>729</v>
+      </c>
+      <c r="K90" t="s">
+        <v>730</v>
+      </c>
+      <c r="L90" t="s">
+        <v>731</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>697</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>732</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>733</v>
+      </c>
+      <c r="J91" t="s">
+        <v>734</v>
+      </c>
+      <c r="K91" t="s">
+        <v>735</v>
+      </c>
+      <c r="L91" t="s">
+        <v>736</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>697</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>737</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>738</v>
+      </c>
+      <c r="J92" t="s">
+        <v>739</v>
+      </c>
+      <c r="K92" t="s">
+        <v>740</v>
+      </c>
+      <c r="L92" t="s">
+        <v>741</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>697</v>
+      </c>
+      <c r="O92" t="s">
+        <v>123</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>742</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>743</v>
+      </c>
+      <c r="J93" t="s">
+        <v>744</v>
+      </c>
+      <c r="K93" t="s">
+        <v>745</v>
+      </c>
+      <c r="L93" t="s">
+        <v>746</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>747</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>748</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>749</v>
+      </c>
+      <c r="J94" t="s">
+        <v>750</v>
+      </c>
+      <c r="K94" t="s">
+        <v>751</v>
+      </c>
+      <c r="L94" t="s">
+        <v>752</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>747</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>754</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>755</v>
+      </c>
+      <c r="J95" t="s">
+        <v>756</v>
+      </c>
+      <c r="K95" t="s">
+        <v>757</v>
+      </c>
+      <c r="L95" t="s">
+        <v>758</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>747</v>
+      </c>
+      <c r="O95" t="s">
+        <v>123</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>759</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>760</v>
+      </c>
+      <c r="J96" t="s">
+        <v>761</v>
+      </c>
+      <c r="K96" t="s">
+        <v>762</v>
+      </c>
+      <c r="L96" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>634</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>765</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>766</v>
+      </c>
+      <c r="J97" t="s">
+        <v>767</v>
+      </c>
+      <c r="K97" t="s">
+        <v>768</v>
+      </c>
+      <c r="L97" t="s">
+        <v>769</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>634</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>770</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>771</v>
+      </c>
+      <c r="J98" t="s">
+        <v>772</v>
+      </c>
+      <c r="K98" t="s">
+        <v>773</v>
+      </c>
+      <c r="L98" t="s">
+        <v>774</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>634</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>775</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>776</v>
+      </c>
+      <c r="J99" t="s">
+        <v>777</v>
+      </c>
+      <c r="K99" t="s">
+        <v>778</v>
+      </c>
+      <c r="L99" t="s">
+        <v>779</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>780</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>782</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>783</v>
+      </c>
+      <c r="J100" t="s">
+        <v>784</v>
+      </c>
+      <c r="K100" t="s">
+        <v>785</v>
+      </c>
+      <c r="L100" t="s">
+        <v>786</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>787</v>
+      </c>
+      <c r="O100" t="s">
+        <v>113</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>788</v>
+      </c>
+      <c r="X100" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>791</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>792</v>
+      </c>
+      <c r="J101" t="s">
+        <v>793</v>
+      </c>
+      <c r="K101" t="s">
+        <v>794</v>
+      </c>
+      <c r="L101" t="s">
+        <v>795</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>796</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>797</v>
+      </c>
+      <c r="X101" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>800</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>801</v>
+      </c>
+      <c r="J102" t="s">
+        <v>802</v>
+      </c>
+      <c r="K102" t="s">
+        <v>803</v>
+      </c>
+      <c r="L102" t="s">
+        <v>804</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>796</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>806</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>807</v>
+      </c>
+      <c r="J103" t="s">
+        <v>808</v>
+      </c>
+      <c r="K103" t="s">
+        <v>809</v>
+      </c>
+      <c r="L103" t="s">
+        <v>810</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>811</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>812</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>813</v>
+      </c>
+      <c r="J104" t="s">
+        <v>814</v>
+      </c>
+      <c r="K104" t="s">
+        <v>815</v>
+      </c>
+      <c r="L104" t="s">
+        <v>816</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>817</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>818</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>819</v>
+      </c>
+      <c r="J105" t="s">
+        <v>820</v>
+      </c>
+      <c r="K105" t="s">
+        <v>821</v>
+      </c>
+      <c r="L105" t="s">
+        <v>822</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>824</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>825</v>
+      </c>
+      <c r="J106" t="s">
+        <v>826</v>
+      </c>
+      <c r="K106" t="s">
+        <v>827</v>
+      </c>
+      <c r="L106" t="s">
+        <v>828</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>829</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>831</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>832</v>
+      </c>
+      <c r="J107" t="s">
+        <v>833</v>
+      </c>
+      <c r="K107" t="s">
+        <v>834</v>
+      </c>
+      <c r="L107" t="s">
+        <v>835</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>836</v>
+      </c>
+      <c r="O107" t="s">
+        <v>113</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>837</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>838</v>
+      </c>
+      <c r="J108" t="s">
+        <v>839</v>
+      </c>
+      <c r="K108" t="s">
+        <v>840</v>
+      </c>
+      <c r="L108" t="s">
+        <v>841</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>842</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>843</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>844</v>
+      </c>
+      <c r="J109" t="s">
+        <v>845</v>
+      </c>
+      <c r="K109" t="s">
+        <v>846</v>
+      </c>
+      <c r="L109" t="s">
+        <v>847</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>829</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>849</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>850</v>
+      </c>
+      <c r="J110" t="s">
+        <v>851</v>
+      </c>
+      <c r="K110" t="s">
+        <v>852</v>
+      </c>
+      <c r="L110" t="s">
+        <v>853</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>829</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>855</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>856</v>
+      </c>
+      <c r="J111" t="s">
+        <v>857</v>
+      </c>
+      <c r="K111" t="s">
+        <v>858</v>
+      </c>
+      <c r="L111" t="s">
+        <v>859</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>842</v>
+      </c>
+      <c r="O111" t="s">
+        <v>113</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>860</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>861</v>
+      </c>
+      <c r="J112" t="s">
+        <v>862</v>
+      </c>
+      <c r="K112" t="s">
+        <v>863</v>
+      </c>
+      <c r="L112" t="s">
+        <v>864</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>865</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>867</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>868</v>
+      </c>
+      <c r="J113" t="s">
+        <v>869</v>
+      </c>
+      <c r="K113" t="s">
+        <v>870</v>
+      </c>
+      <c r="L113" t="s">
+        <v>871</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>872</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>873</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>874</v>
+      </c>
+      <c r="J114" t="s">
+        <v>875</v>
+      </c>
+      <c r="K114" t="s">
+        <v>876</v>
+      </c>
+      <c r="L114" t="s">
+        <v>877</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>878</v>
+      </c>
+      <c r="O114" t="s">
+        <v>113</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>880</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>881</v>
+      </c>
+      <c r="J115" t="s">
+        <v>882</v>
+      </c>
+      <c r="K115" t="s">
+        <v>505</v>
+      </c>
+      <c r="L115" t="s">
+        <v>883</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>59843</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>885</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>886</v>
+      </c>
+      <c r="J116" t="s">
+        <v>887</v>
+      </c>
+      <c r="K116" t="s">
+        <v>888</v>
+      </c>
+      <c r="L116" t="s">
+        <v>889</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>890</v>
+      </c>
+      <c r="O116" t="s">
+        <v>123</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>4</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>891</v>
+      </c>
+      <c r="X116" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
